--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="65">
   <si>
     <t>msg</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Glenn.Turko@henryschein.ca</t>
   </si>
   <si>
-    <t>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15</t>
-  </si>
-  <si>
     <t>attach 1</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>Jason.Schuler@henryschein.ca</t>
   </si>
   <si>
-    <t>Shawn.Altro@henryschein.ca</t>
-  </si>
-  <si>
     <t>denise.kusinski@zahncanada.ca</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>Cherry.Chen-Egan@henryschein.ca</t>
   </si>
   <si>
-    <t>Filomena.Cotoia@henryschein.ca</t>
-  </si>
-  <si>
     <t>Murray.Johnson@henryschein.ca</t>
   </si>
   <si>
@@ -156,70 +147,73 @@
     <t>bill.dowe@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for August 2017</t>
-  </si>
-  <si>
-    <t>201708_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CALGY_Top15.xlsx</t>
+    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15</t>
+  </si>
+  <si>
+    <t>FSC Top 15 Summary for October 2017</t>
+  </si>
+  <si>
+    <t>201710_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CALGY_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -569,10 +563,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -583,7 +577,7 @@
     <col min="5" max="5" width="3.33203125" customWidth="1"/>
     <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.6640625" customWidth="1"/>
-    <col min="8" max="8" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
     <col min="9" max="9" width="3.33203125" customWidth="1"/>
     <col min="11" max="11" width="66.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="39.5546875" bestFit="1" customWidth="1"/>
@@ -595,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -625,10 +619,10 @@
         <v>8</v>
       </c>
       <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>20</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -639,7 +633,7 @@
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>FSC Top 15 Summary for August 2017</v>
+        <v>FSC Top 15 Summary for October 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -649,23 +643,23 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201708_HALFX_Top15.xlsx</v>
+        <v>201710_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -675,22 +669,22 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -700,13 +694,13 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -715,7 +709,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -725,22 +719,22 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -750,22 +744,22 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_OTTWA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -775,22 +769,22 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -800,22 +794,22 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR02_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -825,22 +819,22 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR03_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -850,22 +844,22 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR04_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -875,22 +869,22 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR05_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -900,22 +894,22 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -925,22 +919,22 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_MEDIC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_Zahn_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -950,22 +944,22 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_LONDN_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -975,22 +969,22 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1000,22 +994,22 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_EDMON_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1025,22 +1019,22 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_EDMON_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1049,23 +1043,23 @@
         <v>1</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ref="G18:G64" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC03_Top15.xlsx</v>
+        <f t="shared" ref="G18:G59" si="2">$K18&amp;"\"&amp;L18</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC01_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1075,21 +1069,21 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC02_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1099,21 +1093,21 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC03_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1123,21 +1117,21 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC02_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1147,21 +1141,21 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC03_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1171,21 +1165,21 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC01_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1195,21 +1189,21 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC02_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1219,21 +1213,21 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC03_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1243,21 +1237,21 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC02_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1267,21 +1261,21 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC03_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1291,21 +1285,21 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC01_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1315,21 +1309,21 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1339,21 +1333,21 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VAC03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1363,21 +1357,21 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_LONDN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC02_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1387,21 +1381,21 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC03_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L32" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1411,21 +1405,21 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR02_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1435,21 +1429,21 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR03_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1459,21 +1453,21 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR04_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1483,21 +1477,21 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR05_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1507,21 +1501,21 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR02_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1531,21 +1525,21 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR03_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1555,21 +1549,21 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR04_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1579,21 +1573,21 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR05_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1603,21 +1597,21 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_Zahn_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1627,21 +1621,21 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR02_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1651,13 +1645,13 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR03_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
@@ -1665,7 +1659,7 @@
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1675,21 +1669,21 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR04_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1699,21 +1693,21 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_TOR05_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1723,13 +1717,13 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_EDMON_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L46" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
@@ -1737,31 +1731,31 @@
         <v>34</v>
       </c>
       <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_NWFLD_Top15.xlsx</v>
+      </c>
+      <c r="K47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" t="s">
         <v>45</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR03_Top15.xlsx</v>
-      </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1771,21 +1765,21 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_HALFX_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L48" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1795,10 +1789,10 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L49" t="s">
         <v>53</v>
@@ -1809,7 +1803,7 @@
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1819,13 +1813,13 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L50" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
@@ -1833,7 +1827,7 @@
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1843,21 +1837,21 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L51" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1867,21 +1861,21 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1891,21 +1885,21 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_REGIN_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L53" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1915,21 +1909,21 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WINPG_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L54" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -1939,21 +1933,21 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CALGY_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L55" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1963,21 +1957,21 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CALGY_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L56" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1987,21 +1981,21 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC02_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L57" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2011,21 +2005,21 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_REGIN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_VIC03_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2035,133 +2029,13 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WINPG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_Zahn_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="L59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CALGY_Top15.xlsx</v>
-      </c>
-      <c r="K60" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CALGY_Top15.xlsx</v>
-      </c>
-      <c r="K61" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC02_Top15.xlsx</v>
-      </c>
-      <c r="K62" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_VIC03_Top15.xlsx</v>
-      </c>
-      <c r="K63" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_Zahn_Top15.xlsx</v>
-      </c>
-      <c r="K64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="69">
   <si>
     <t>msg</t>
   </si>
@@ -154,73 +154,79 @@
     <t>email name</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for February 2018</t>
-  </si>
-  <si>
-    <t>201802_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>201802_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201802_CALGY_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for March 2018</t>
+  </si>
+  <si>
+    <t>201803_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>Marco.Mascitelli@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201803_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201803_CALGY_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_16</t>
   </si>
 </sst>
 </file>
@@ -570,7 +576,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -639,7 +645,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -649,14 +655,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201802_HALFX_Top15.xlsx</v>
+        <v>201803_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -667,7 +673,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -677,14 +683,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201802_HALFX_Top15.xlsx</v>
+        <v>201803_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -695,7 +701,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -705,14 +711,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201802_NWFLD_Top15.xlsx</v>
+        <v>201803_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -723,7 +729,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -733,14 +739,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>39</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201802_QUEBC_Top15.xlsx</v>
+        <v>201803_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -751,7 +757,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -761,14 +767,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>39</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201802_Zahn_Top15.xlsx</v>
+        <v>201803_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -779,7 +785,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -789,14 +795,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_OTTWA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>39</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201802_OTTWA_Top15.xlsx</v>
+        <v>201803_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -807,7 +813,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -817,14 +823,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201802_TOR02_Top15.xlsx</v>
+        <v>201803_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -835,7 +841,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -845,14 +851,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201802_TOR03_Top15.xlsx</v>
+        <v>201803_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -863,7 +869,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -873,14 +879,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201802_TOR04_Top15.xlsx</v>
+        <v>201803_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -891,7 +897,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -901,14 +907,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>39</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201802_TOR05_Top15.xlsx</v>
+        <v>201803_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -919,7 +925,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -929,14 +935,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201802_MNTRL_Top15.xlsx</v>
+        <v>201803_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -947,7 +953,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -957,14 +963,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201802_Zahn_Top15.xlsx</v>
+        <v>201803_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -975,7 +981,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -985,25 +991,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_LONDN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_LONDN_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201802_LONDN_Top15.xlsx</v>
+        <v>201803_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="str">
         <f>Sheet1!B15</f>
-        <v>Audrey.Wiens@henryschein.ca</v>
+        <v>Marco.Mascitelli@henryschein.ca</v>
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1013,25 +1019,25 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_MEDIC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201802_MEDIC_Top15.xlsx</v>
+        <v>201803_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="str">
         <f>Sheet1!B16</f>
-        <v>Josee.Cherfan@henryschein.ca</v>
+        <v>Audrey.Wiens@henryschein.ca</v>
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1041,25 +1047,25 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201802_EDMON_Top15.xlsx</v>
+        <v>201803_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="str">
         <f>Sheet1!B17</f>
-        <v>Dean.Pollard@henryschein.ca</v>
+        <v>Josee.Cherfan@henryschein.ca</v>
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1069,25 +1075,25 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_EDMON_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201802_EDMON_Top15.xlsx</v>
+        <v>201803_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="str">
         <f>Sheet1!B18</f>
-        <v>John.Meredith@henryschein.ca</v>
+        <v>Dean.Pollard@henryschein.ca</v>
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1097,14 +1103,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G55" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_EDMON_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201802_VAC01_Top15.xlsx</v>
+        <v>201803_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1115,7 +1121,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1125,14 +1131,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC01_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201802_VAC02_Top15.xlsx</v>
+        <v>201803_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,7 +1148,7 @@
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1152,14 +1158,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC02_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>39</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201802_VAC03_Top15.xlsx</v>
+        <v>201803_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1169,7 +1175,7 @@
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1179,14 +1185,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC03_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>39</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201802_VIC02_Top15.xlsx</v>
+        <v>201803_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1196,7 +1202,7 @@
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1206,24 +1212,24 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC02_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>39</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201802_VIC03_Top15.xlsx</v>
+        <v>201803_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f>Sheet1!B23</f>
-        <v>Adam.Jones@henryschein.ca</v>
+        <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1233,14 +1239,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC03_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201802_VAC01_Top15.xlsx</v>
+        <v>201803_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1250,7 +1256,7 @@
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1260,14 +1266,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC01_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201802_VAC02_Top15.xlsx</v>
+        <v>201803_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1277,7 +1283,7 @@
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1287,14 +1293,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC02_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>39</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201802_VAC03_Top15.xlsx</v>
+        <v>201803_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1304,7 +1310,7 @@
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1314,14 +1320,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC03_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>39</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201802_VIC02_Top15.xlsx</v>
+        <v>201803_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1331,7 +1337,7 @@
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1341,24 +1347,24 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>39</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201802_VIC03_Top15.xlsx</v>
+        <v>201803_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="str">
         <f>Sheet1!B28</f>
-        <v>Jason.Schuler@henryschein.ca</v>
+        <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1368,14 +1374,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>39</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201802_TOR02_Top15.xlsx</v>
+        <v>201803_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1385,7 +1391,7 @@
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1395,14 +1401,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201802_TOR03_Top15.xlsx</v>
+        <v>201803_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1412,7 +1418,7 @@
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1422,14 +1428,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>39</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201802_TOR04_Top15.xlsx</v>
+        <v>201803_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1439,7 +1445,7 @@
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1449,24 +1455,24 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>39</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201802_TOR05_Top15.xlsx</v>
+        <v>201803_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="str">
         <f>Sheet1!B32</f>
-        <v>denise.kusinski@zahncanada.ca</v>
+        <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1476,24 +1482,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>39</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201802_Zahn_Top15.xlsx</v>
+        <v>201803_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="str">
         <f>Sheet1!B33</f>
-        <v>Naghmeh.Hafezi@henryschein.ca</v>
+        <v>denise.kusinski@zahncanada.ca</v>
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1503,14 +1509,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>39</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201802_TOR02_Top15.xlsx</v>
+        <v>201803_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1520,7 +1526,7 @@
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1530,14 +1536,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>39</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201802_TOR03_Top15.xlsx</v>
+        <v>201803_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1547,7 +1553,7 @@
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1557,14 +1563,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>39</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201802_TOR04_Top15.xlsx</v>
+        <v>201803_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1574,7 +1580,7 @@
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1584,24 +1590,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>39</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201802_TOR05_Top15.xlsx</v>
+        <v>201803_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="str">
         <f>Sheet1!B37</f>
-        <v>anthony.archer@henryschein.ca</v>
+        <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1611,14 +1617,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>39</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201802_TOR02_Top15.xlsx</v>
+        <v>201803_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -1628,7 +1634,7 @@
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1638,14 +1644,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>39</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201802_TOR03_Top15.xlsx</v>
+        <v>201803_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -1655,7 +1661,7 @@
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1665,14 +1671,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>39</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201802_TOR04_Top15.xlsx</v>
+        <v>201803_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1682,7 +1688,7 @@
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1692,24 +1698,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>39</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201802_TOR05_Top15.xlsx</v>
+        <v>201803_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="str">
         <f>Sheet1!B41</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1719,14 +1725,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>39</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201802_TOR02_Top15.xlsx</v>
+        <v>201803_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1736,7 +1742,7 @@
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1746,14 +1752,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>39</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201802_TOR03_Top15.xlsx</v>
+        <v>201803_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -1763,7 +1769,7 @@
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1773,14 +1779,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>39</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201802_TOR04_Top15.xlsx</v>
+        <v>201803_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -1790,7 +1796,7 @@
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1800,24 +1806,24 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>39</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201802_TOR05_Top15.xlsx</v>
+        <v>201803_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="str">
         <f>Sheet1!B45</f>
-        <v>Murray.Johnson@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1827,24 +1833,24 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>39</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201802_EDMON_Top15.xlsx</v>
+        <v>201803_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="str">
         <f>Sheet1!B46</f>
-        <v>Larry.Abbott@henryschein.ca</v>
+        <v>Murray.Johnson@henryschein.ca</v>
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1854,24 +1860,24 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_EDMON_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>39</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201802_NWFLD_Top15.xlsx</v>
+        <v>201803_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="str">
         <f>Sheet1!B47</f>
-        <v>Jason.Tingley@henryschein.ca</v>
+        <v>Larry.Abbott@henryschein.ca</v>
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1881,24 +1887,24 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>39</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201802_HALFX_Top15.xlsx</v>
+        <v>201803_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="str">
         <f>Sheet1!B48</f>
-        <v>Christian.Marsolais@henryschein.ca</v>
+        <v>Jason.Tingley@henryschein.ca</v>
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1908,14 +1914,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_HALFX_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>39</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201802_MNTRL_Top15.xlsx</v>
+        <v>201803_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -1925,7 +1931,7 @@
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1935,24 +1941,24 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>39</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201802_QUEBC_Top15.xlsx</v>
+        <v>201803_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="str">
         <f>Sheet1!B50</f>
-        <v>Yves.Trepanier@henryschein.ca</v>
+        <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1962,14 +1968,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>39</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201802_MNTRL_Top15.xlsx</v>
+        <v>201803_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -1979,7 +1985,7 @@
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1989,24 +1995,24 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>39</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201802_QUEBC_Top15.xlsx</v>
+        <v>201803_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="str">
         <f>Sheet1!B52</f>
-        <v>Kevin.Riley@henryschein.ca</v>
+        <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2016,14 +2022,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_REGIN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>39</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201802_REGIN_Top15.xlsx</v>
+        <v>201803_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2033,7 +2039,7 @@
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2043,24 +2049,24 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_WINPG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_REGIN_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>39</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201802_WINPG_Top15.xlsx</v>
+        <v>201803_REGIN_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="str">
         <f>Sheet1!B54</f>
-        <v>Greg.Christensen@henryschein.ca</v>
+        <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2070,24 +2076,24 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_WINPG_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>39</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201802_CALGY_Top15.xlsx</v>
+        <v>201803_WINPG_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f>Sheet1!B55</f>
-        <v>Danelle.Fulawka@henryschein.ca</v>
+        <v>Greg.Christensen@henryschein.ca</v>
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2097,24 +2103,24 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_CALGY_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>39</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201802_CALGY_Top15.xlsx</v>
+        <v>201803_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f>Sheet1!B56</f>
-        <v>Glenn.Turko@henryschein.ca</v>
+        <v>Danelle.Fulawka@henryschein.ca</v>
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2124,14 +2130,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" ref="G56:G58" si="3">$K56&amp;"\"&amp;L56</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_CALGY_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>39</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201802_VIC02_Top15.xlsx</v>
+        <v>201803_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -2141,7 +2147,7 @@
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2151,24 +2157,24 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC02_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>39</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201802_VIC03_Top15.xlsx</v>
+        <v>201803_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="str">
         <f>Sheet1!B58</f>
-        <v>Barbara.Brown@henryschein.ca</v>
+        <v>Glenn.Turko@henryschein.ca</v>
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2178,14 +2184,41 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201802_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC03_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>39</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201802_Zahn_Top15.xlsx</v>
+        <v>201803_VIC03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="str">
+        <f>Sheet1!B59</f>
+        <v>Barbara.Brown@henryschein.ca</v>
+      </c>
+      <c r="D59" t="str">
+        <f>Sheet1!C59</f>
+        <v>FSC Top 15 Summary for March 2018</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" ref="G59" si="4">$K59&amp;"\"&amp;L59</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_16\201803_Zahn_Top15.xlsx</v>
+      </c>
+      <c r="K59" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" t="str">
+        <f>Sheet1!E59</f>
+        <v>201803_Zahn_Top15.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -2195,6 +2228,7 @@
     <hyperlink ref="B56" r:id="rId3" display="BusinessReporting.Canada@henryschein.ca"/>
     <hyperlink ref="B57" r:id="rId4" display="BusinessReporting.Canada@henryschein.ca"/>
     <hyperlink ref="B58" r:id="rId5" display="BusinessReporting.Canada@henryschein.ca"/>
+    <hyperlink ref="B59" r:id="rId6" display="BusinessReporting.Canada@henryschein.ca"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2202,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection sqref="A1:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,11 +2656,11 @@
       </c>
       <c r="C2" t="str">
         <f>C3</f>
-        <v>FSC Top 15 Summary for February 2018</v>
+        <v>FSC Top 15 Summary for March 2018</v>
       </c>
       <c r="E2" t="str">
         <f>E3</f>
-        <v>201802_HALFX_Top15.xlsx</v>
+        <v>201803_HALFX_Top15.xlsx</v>
       </c>
       <c r="F2" t="str">
         <f>F3</f>
@@ -2638,13 +2672,13 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,13 +2686,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,13 +2700,13 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,13 +2714,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,13 +2728,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2708,13 +2742,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2722,13 +2756,13 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,13 +2770,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2750,13 +2784,13 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,13 +2798,13 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2778,13 +2812,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2792,69 +2826,69 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2862,13 +2896,13 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2876,13 +2910,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -2890,13 +2924,13 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2904,27 +2938,27 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -2932,13 +2966,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -2946,13 +2980,13 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -2960,13 +2994,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -2974,27 +3008,27 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -3002,13 +3036,13 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -3016,13 +3050,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -3030,41 +3064,41 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -3072,13 +3106,13 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -3086,13 +3120,13 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -3100,27 +3134,27 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -3128,13 +3162,13 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -3142,13 +3176,13 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -3156,27 +3190,27 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -3184,13 +3218,13 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -3198,13 +3232,13 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -3212,66 +3246,66 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
-      </c>
-      <c r="F47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -3279,27 +3313,27 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E49" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -3307,27 +3341,27 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E52" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -3335,55 +3369,55 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
         <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E54" t="s">
         <v>66</v>
       </c>
       <c r="F54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -3391,27 +3425,41 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" t="s">
+        <v>64</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>36</v>
       </c>
-      <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
         <v>49</v>
       </c>
-      <c r="F58" t="s">
-        <v>46</v>
+      <c r="F59" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="68">
   <si>
     <t>msg</t>
   </si>
@@ -157,76 +157,73 @@
     <t/>
   </si>
   <si>
-    <t>FSC Top 15 Summary for March 2018</t>
-  </si>
-  <si>
-    <t>201803_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
     <t>Marco.Mascitelli@henryschein.ca</t>
   </si>
   <si>
-    <t>201803_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201803_CALGY_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_16</t>
+    <t>FSC Top 15 Summary for April 2018</t>
+  </si>
+  <si>
+    <t>201804_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201804_CALGY_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -578,7 +575,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -645,7 +644,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -655,14 +654,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201803_HALFX_Top15.xlsx</v>
+        <v>201804_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -673,7 +672,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -683,14 +682,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201803_HALFX_Top15.xlsx</v>
+        <v>201804_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -701,7 +700,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -711,14 +710,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201803_NWFLD_Top15.xlsx</v>
+        <v>201804_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -729,7 +728,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -739,14 +738,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>39</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201803_QUEBC_Top15.xlsx</v>
+        <v>201804_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -757,7 +756,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -767,14 +766,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>39</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201803_Zahn_Top15.xlsx</v>
+        <v>201804_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -785,7 +784,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -795,14 +794,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_OTTWA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>39</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201803_OTTWA_Top15.xlsx</v>
+        <v>201804_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -813,7 +812,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -823,14 +822,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201803_TOR02_Top15.xlsx</v>
+        <v>201804_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -841,7 +840,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -851,14 +850,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201803_TOR03_Top15.xlsx</v>
+        <v>201804_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -869,7 +868,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -879,14 +878,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201803_TOR04_Top15.xlsx</v>
+        <v>201804_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -897,7 +896,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -907,14 +906,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>39</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201803_TOR05_Top15.xlsx</v>
+        <v>201804_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -925,7 +924,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -935,14 +934,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201803_MNTRL_Top15.xlsx</v>
+        <v>201804_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -953,7 +952,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -963,14 +962,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201803_Zahn_Top15.xlsx</v>
+        <v>201804_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -981,7 +980,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -991,14 +990,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_LONDN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_LONDN_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201803_LONDN_Top15.xlsx</v>
+        <v>201804_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1009,7 +1008,7 @@
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1019,14 +1018,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201803_Zahn_Top15.xlsx</v>
+        <v>201804_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1037,7 +1036,7 @@
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1047,14 +1046,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MEDIC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201803_MEDIC_Top15.xlsx</v>
+        <v>201804_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1065,7 +1064,7 @@
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1075,14 +1074,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_EDMON_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201803_EDMON_Top15.xlsx</v>
+        <v>201804_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1093,7 +1092,7 @@
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1103,14 +1102,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G55" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_EDMON_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201803_EDMON_Top15.xlsx</v>
+        <v>201804_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1121,7 +1120,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1131,14 +1130,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC01_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201803_VAC01_Top15.xlsx</v>
+        <v>201804_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1148,7 +1147,7 @@
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1158,14 +1157,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC02_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>39</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201803_VAC02_Top15.xlsx</v>
+        <v>201804_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1175,7 +1174,7 @@
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1185,14 +1184,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC03_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>39</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201803_VAC03_Top15.xlsx</v>
+        <v>201804_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1202,7 +1201,7 @@
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1212,14 +1211,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC02_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>39</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201803_VIC02_Top15.xlsx</v>
+        <v>201804_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1229,7 +1228,7 @@
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1239,14 +1238,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC03_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201803_VIC03_Top15.xlsx</v>
+        <v>201804_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1256,7 +1255,7 @@
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1266,14 +1265,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC01_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201803_VAC01_Top15.xlsx</v>
+        <v>201804_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1283,7 +1282,7 @@
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1293,14 +1292,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC02_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>39</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201803_VAC02_Top15.xlsx</v>
+        <v>201804_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1310,7 +1309,7 @@
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1320,14 +1319,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC03_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>39</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201803_VAC03_Top15.xlsx</v>
+        <v>201804_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1337,7 +1336,7 @@
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1347,14 +1346,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>39</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201803_VIC02_Top15.xlsx</v>
+        <v>201804_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1364,7 +1363,7 @@
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1374,14 +1373,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>39</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201803_VIC03_Top15.xlsx</v>
+        <v>201804_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1391,7 +1390,7 @@
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1401,14 +1400,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201803_TOR02_Top15.xlsx</v>
+        <v>201804_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1418,7 +1417,7 @@
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1428,14 +1427,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>39</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201803_TOR03_Top15.xlsx</v>
+        <v>201804_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1445,7 +1444,7 @@
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1455,14 +1454,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>39</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201803_TOR04_Top15.xlsx</v>
+        <v>201804_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1472,7 +1471,7 @@
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1482,14 +1481,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>39</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201803_TOR05_Top15.xlsx</v>
+        <v>201804_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1499,7 +1498,7 @@
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1509,14 +1508,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>39</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201803_Zahn_Top15.xlsx</v>
+        <v>201804_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1526,7 +1525,7 @@
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1536,14 +1535,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>39</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201803_TOR02_Top15.xlsx</v>
+        <v>201804_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1553,7 +1552,7 @@
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1563,14 +1562,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>39</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201803_TOR03_Top15.xlsx</v>
+        <v>201804_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1580,7 +1579,7 @@
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1590,14 +1589,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>39</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201803_TOR04_Top15.xlsx</v>
+        <v>201804_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -1607,7 +1606,7 @@
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1617,14 +1616,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>39</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201803_TOR05_Top15.xlsx</v>
+        <v>201804_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -1634,7 +1633,7 @@
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1644,14 +1643,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>39</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201803_TOR02_Top15.xlsx</v>
+        <v>201804_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -1661,7 +1660,7 @@
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1671,14 +1670,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>39</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201803_TOR03_Top15.xlsx</v>
+        <v>201804_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1688,7 +1687,7 @@
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1698,14 +1697,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>39</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201803_TOR04_Top15.xlsx</v>
+        <v>201804_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -1715,7 +1714,7 @@
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1725,14 +1724,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>39</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201803_TOR05_Top15.xlsx</v>
+        <v>201804_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1742,7 +1741,7 @@
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1752,14 +1751,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>39</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201803_TOR02_Top15.xlsx</v>
+        <v>201804_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -1769,7 +1768,7 @@
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1779,14 +1778,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>39</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201803_TOR03_Top15.xlsx</v>
+        <v>201804_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -1796,7 +1795,7 @@
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1806,14 +1805,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>39</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201803_TOR04_Top15.xlsx</v>
+        <v>201804_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -1823,7 +1822,7 @@
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1833,14 +1832,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>39</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201803_TOR05_Top15.xlsx</v>
+        <v>201804_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -1850,7 +1849,7 @@
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1860,14 +1859,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_EDMON_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>39</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201803_EDMON_Top15.xlsx</v>
+        <v>201804_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -1877,7 +1876,7 @@
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1887,14 +1886,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>39</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201803_NWFLD_Top15.xlsx</v>
+        <v>201804_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -1904,7 +1903,7 @@
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1914,14 +1913,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_HALFX_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>39</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201803_HALFX_Top15.xlsx</v>
+        <v>201804_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -1931,7 +1930,7 @@
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1941,14 +1940,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>39</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201803_MNTRL_Top15.xlsx</v>
+        <v>201804_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -1958,7 +1957,7 @@
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1968,14 +1967,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>39</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201803_QUEBC_Top15.xlsx</v>
+        <v>201804_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -1985,7 +1984,7 @@
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1995,14 +1994,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>39</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201803_MNTRL_Top15.xlsx</v>
+        <v>201804_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2012,7 +2011,7 @@
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2022,14 +2021,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>39</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201803_QUEBC_Top15.xlsx</v>
+        <v>201804_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2039,7 +2038,7 @@
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2049,14 +2048,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_REGIN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_REGIN_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>39</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201803_REGIN_Top15.xlsx</v>
+        <v>201804_REGIN_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2066,7 +2065,7 @@
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2076,14 +2075,14 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_WINPG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_WINPG_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>39</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201803_WINPG_Top15.xlsx</v>
+        <v>201804_WINPG_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -2093,7 +2092,7 @@
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2103,14 +2102,14 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_CALGY_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>39</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201803_CALGY_Top15.xlsx</v>
+        <v>201804_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -2120,7 +2119,7 @@
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2130,14 +2129,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" ref="G56:G58" si="3">$K56&amp;"\"&amp;L56</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_CALGY_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>39</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201803_CALGY_Top15.xlsx</v>
+        <v>201804_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -2147,7 +2146,7 @@
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2157,14 +2156,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC02_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>39</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201803_VIC02_Top15.xlsx</v>
+        <v>201804_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -2174,7 +2173,7 @@
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2184,14 +2183,14 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201803_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC03_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>39</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201803_VIC03_Top15.xlsx</v>
+        <v>201804_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -2201,7 +2200,7 @@
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2211,14 +2210,14 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" ref="G59" si="4">$K59&amp;"\"&amp;L59</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_16\201803_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201803_Zahn_Top15.xlsx</v>
+        <v>201804_Zahn_Top15.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -2239,7 +2238,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection sqref="A1:F59"/>
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,11 +2655,11 @@
       </c>
       <c r="C2" t="str">
         <f>C3</f>
-        <v>FSC Top 15 Summary for March 2018</v>
+        <v>FSC Top 15 Summary for April 2018</v>
       </c>
       <c r="E2" t="str">
         <f>E3</f>
-        <v>201803_HALFX_Top15.xlsx</v>
+        <v>201804_HALFX_Top15.xlsx</v>
       </c>
       <c r="F2" t="str">
         <f>F3</f>
@@ -2672,10 +2671,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2686,10 +2685,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2700,10 +2699,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -2714,10 +2713,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2728,10 +2727,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -2742,10 +2741,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -2756,10 +2755,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -2770,10 +2769,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
@@ -2784,10 +2783,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
@@ -2798,10 +2797,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
@@ -2812,10 +2811,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -2826,10 +2825,10 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -2837,13 +2836,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -2854,7 +2853,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
         <v>58</v>
@@ -2868,7 +2867,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>59</v>
@@ -2882,7 +2881,7 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>59</v>
@@ -2896,7 +2895,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>60</v>
@@ -2910,7 +2909,7 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>61</v>
@@ -2924,7 +2923,7 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>62</v>
@@ -2938,7 +2937,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -2952,7 +2951,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>64</v>
@@ -2966,7 +2965,7 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
@@ -2980,7 +2979,7 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -2994,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
@@ -3008,7 +3007,7 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
@@ -3022,7 +3021,7 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
@@ -3036,10 +3035,10 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
         <v>44</v>
@@ -3050,10 +3049,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -3064,10 +3063,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -3078,10 +3077,10 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3092,10 +3091,10 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
@@ -3106,10 +3105,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
         <v>44</v>
@@ -3120,10 +3119,10 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -3134,10 +3133,10 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
         <v>44</v>
@@ -3148,10 +3147,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -3162,10 +3161,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -3176,10 +3175,10 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -3190,10 +3189,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
@@ -3204,10 +3203,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
@@ -3218,10 +3217,10 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
         <v>44</v>
@@ -3232,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
         <v>44</v>
@@ -3246,10 +3245,10 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -3260,10 +3259,10 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
         <v>44</v>
@@ -3274,7 +3273,7 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
         <v>59</v>
@@ -3288,10 +3287,10 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -3299,10 +3298,10 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
         <v>44</v>
@@ -3313,10 +3312,10 @@
         <v>32</v>
       </c>
       <c r="C49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
         <v>44</v>
@@ -3327,10 +3326,10 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F50" t="s">
         <v>44</v>
@@ -3341,10 +3340,10 @@
         <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -3355,10 +3354,10 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
         <v>44</v>
@@ -3369,7 +3368,7 @@
         <v>15</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
         <v>65</v>
@@ -3383,7 +3382,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
         <v>66</v>
@@ -3397,7 +3396,7 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
         <v>67</v>
@@ -3411,7 +3410,7 @@
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
         <v>67</v>
@@ -3425,7 +3424,7 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
         <v>63</v>
@@ -3439,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
         <v>64</v>
@@ -3453,10 +3452,10 @@
         <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s">
         <v>44</v>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Page" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="69">
   <si>
     <t>msg</t>
   </si>
@@ -160,70 +160,73 @@
     <t>Marco.Mascitelli@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for April 2018</t>
-  </si>
-  <si>
-    <t>201804_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201804_CALGY_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for May 2018</t>
+  </si>
+  <si>
+    <t>201805_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>mathieu.damour@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201805_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201805_CALGY_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +647,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -654,14 +657,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201804_HALFX_Top15.xlsx</v>
+        <v>201805_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -672,7 +675,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -682,14 +685,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201804_HALFX_Top15.xlsx</v>
+        <v>201805_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -700,7 +703,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -710,14 +713,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201804_NWFLD_Top15.xlsx</v>
+        <v>201805_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -728,7 +731,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -738,14 +741,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>39</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201804_QUEBC_Top15.xlsx</v>
+        <v>201805_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -756,7 +759,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -766,14 +769,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>39</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201804_Zahn_Top15.xlsx</v>
+        <v>201805_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -784,7 +787,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -794,14 +797,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_OTTWA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>39</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201804_OTTWA_Top15.xlsx</v>
+        <v>201805_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -812,7 +815,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -822,14 +825,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201804_TOR02_Top15.xlsx</v>
+        <v>201805_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -840,7 +843,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -850,14 +853,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201804_TOR03_Top15.xlsx</v>
+        <v>201805_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -868,7 +871,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -878,14 +881,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201804_TOR04_Top15.xlsx</v>
+        <v>201805_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -896,7 +899,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -906,14 +909,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>39</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201804_TOR05_Top15.xlsx</v>
+        <v>201805_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -924,7 +927,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -934,14 +937,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201804_MNTRL_Top15.xlsx</v>
+        <v>201805_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -952,7 +955,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -962,14 +965,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201804_Zahn_Top15.xlsx</v>
+        <v>201805_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -990,14 +993,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_LONDN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_LONDN_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201804_LONDN_Top15.xlsx</v>
+        <v>201805_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1008,7 +1011,7 @@
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1018,14 +1021,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201804_Zahn_Top15.xlsx</v>
+        <v>201805_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1036,7 +1039,7 @@
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1046,14 +1049,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MEDIC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201804_MEDIC_Top15.xlsx</v>
+        <v>201805_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1064,7 +1067,7 @@
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1074,14 +1077,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_EDMON_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201804_EDMON_Top15.xlsx</v>
+        <v>201805_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1092,7 +1095,7 @@
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1102,14 +1105,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G55" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_EDMON_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201804_EDMON_Top15.xlsx</v>
+        <v>201805_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1120,7 +1123,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1130,14 +1133,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC01_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201804_VAC01_Top15.xlsx</v>
+        <v>201805_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1147,7 +1150,7 @@
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1157,14 +1160,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC02_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>39</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201804_VAC02_Top15.xlsx</v>
+        <v>201805_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1174,7 +1177,7 @@
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1184,14 +1187,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC03_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>39</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201804_VAC03_Top15.xlsx</v>
+        <v>201805_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1201,7 +1204,7 @@
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1211,14 +1214,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC02_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>39</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201804_VIC02_Top15.xlsx</v>
+        <v>201805_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1228,7 +1231,7 @@
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1238,14 +1241,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC03_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201804_VIC03_Top15.xlsx</v>
+        <v>201805_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1255,7 +1258,7 @@
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1265,14 +1268,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC01_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201804_VAC01_Top15.xlsx</v>
+        <v>201805_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1282,7 +1285,7 @@
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1292,14 +1295,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC02_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>39</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201804_VAC02_Top15.xlsx</v>
+        <v>201805_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1309,7 +1312,7 @@
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1319,14 +1322,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC03_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>39</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201804_VAC03_Top15.xlsx</v>
+        <v>201805_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1336,7 +1339,7 @@
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1346,14 +1349,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>39</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201804_VIC02_Top15.xlsx</v>
+        <v>201805_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1363,7 +1366,7 @@
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1373,14 +1376,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>39</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201804_VIC03_Top15.xlsx</v>
+        <v>201805_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1390,7 +1393,7 @@
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1400,14 +1403,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201804_TOR02_Top15.xlsx</v>
+        <v>201805_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1417,7 +1420,7 @@
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1427,14 +1430,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>39</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201804_TOR03_Top15.xlsx</v>
+        <v>201805_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1444,7 +1447,7 @@
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1454,14 +1457,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>39</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201804_TOR04_Top15.xlsx</v>
+        <v>201805_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1471,7 +1474,7 @@
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1481,14 +1484,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>39</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201804_TOR05_Top15.xlsx</v>
+        <v>201805_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1498,7 +1501,7 @@
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1508,14 +1511,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>39</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201804_Zahn_Top15.xlsx</v>
+        <v>201805_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1525,7 +1528,7 @@
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1535,14 +1538,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>39</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201804_TOR02_Top15.xlsx</v>
+        <v>201805_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1552,7 +1555,7 @@
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1562,14 +1565,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>39</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201804_TOR03_Top15.xlsx</v>
+        <v>201805_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1579,7 +1582,7 @@
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1589,14 +1592,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>39</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201804_TOR04_Top15.xlsx</v>
+        <v>201805_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -1606,7 +1609,7 @@
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1616,14 +1619,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>39</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201804_TOR05_Top15.xlsx</v>
+        <v>201805_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -1633,7 +1636,7 @@
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1643,14 +1646,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>39</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201804_TOR02_Top15.xlsx</v>
+        <v>201805_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -1660,7 +1663,7 @@
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1670,14 +1673,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>39</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201804_TOR03_Top15.xlsx</v>
+        <v>201805_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1687,7 +1690,7 @@
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1697,14 +1700,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>39</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201804_TOR04_Top15.xlsx</v>
+        <v>201805_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -1714,7 +1717,7 @@
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1724,14 +1727,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>39</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201804_TOR05_Top15.xlsx</v>
+        <v>201805_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1741,7 +1744,7 @@
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1751,14 +1754,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>39</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201804_TOR02_Top15.xlsx</v>
+        <v>201805_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -1768,7 +1771,7 @@
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1778,14 +1781,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>39</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201804_TOR03_Top15.xlsx</v>
+        <v>201805_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -1795,7 +1798,7 @@
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1805,14 +1808,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>39</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201804_TOR04_Top15.xlsx</v>
+        <v>201805_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -1822,7 +1825,7 @@
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1832,14 +1835,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>39</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201804_TOR05_Top15.xlsx</v>
+        <v>201805_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -1849,7 +1852,7 @@
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1859,14 +1862,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_EDMON_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>39</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201804_EDMON_Top15.xlsx</v>
+        <v>201805_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -1876,7 +1879,7 @@
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1886,14 +1889,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>39</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201804_NWFLD_Top15.xlsx</v>
+        <v>201805_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -1903,7 +1906,7 @@
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1913,24 +1916,24 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_HALFX_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>39</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201804_HALFX_Top15.xlsx</v>
+        <v>201805_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="str">
         <f>Sheet1!B49</f>
-        <v>Christian.Marsolais@henryschein.ca</v>
+        <v>mathieu.damour@henryschein.ca</v>
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1940,14 +1943,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>39</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201804_MNTRL_Top15.xlsx</v>
+        <v>201805_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -1957,7 +1960,7 @@
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1967,24 +1970,24 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>39</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201804_QUEBC_Top15.xlsx</v>
+        <v>201805_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="str">
         <f>Sheet1!B51</f>
-        <v>Yves.Trepanier@henryschein.ca</v>
+        <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1994,14 +1997,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>39</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201804_MNTRL_Top15.xlsx</v>
+        <v>201805_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2011,7 +2014,7 @@
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2021,24 +2024,24 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>39</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201804_QUEBC_Top15.xlsx</v>
+        <v>201805_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="str">
         <f>Sheet1!B53</f>
-        <v>Kevin.Riley@henryschein.ca</v>
+        <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2048,14 +2051,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_REGIN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>39</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201804_REGIN_Top15.xlsx</v>
+        <v>201805_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2065,7 +2068,7 @@
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2075,24 +2078,24 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_WINPG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_REGIN_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>39</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201804_WINPG_Top15.xlsx</v>
+        <v>201805_REGIN_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="str">
         <f>Sheet1!B55</f>
-        <v>Greg.Christensen@henryschein.ca</v>
+        <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2102,24 +2105,24 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_WINPG_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>39</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201804_CALGY_Top15.xlsx</v>
+        <v>201805_WINPG_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="str">
         <f>Sheet1!B56</f>
-        <v>Danelle.Fulawka@henryschein.ca</v>
+        <v>Greg.Christensen@henryschein.ca</v>
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2129,24 +2132,24 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" ref="G56:G58" si="3">$K56&amp;"\"&amp;L56</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_CALGY_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>39</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201804_CALGY_Top15.xlsx</v>
+        <v>201805_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="str">
         <f>Sheet1!B57</f>
-        <v>Glenn.Turko@henryschein.ca</v>
+        <v>Danelle.Fulawka@henryschein.ca</v>
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2156,14 +2159,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_CALGY_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>39</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201804_VIC02_Top15.xlsx</v>
+        <v>201805_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -2173,7 +2176,7 @@
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2183,24 +2186,24 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC02_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>39</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201804_VIC03_Top15.xlsx</v>
+        <v>201805_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="str">
         <f>Sheet1!B59</f>
-        <v>Barbara.Brown@henryschein.ca</v>
+        <v>Glenn.Turko@henryschein.ca</v>
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2210,14 +2213,41 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" ref="G59" si="4">$K59&amp;"\"&amp;L59</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201804_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC03_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>39</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201804_Zahn_Top15.xlsx</v>
+        <v>201805_VIC03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="str">
+        <f>Sheet1!B60</f>
+        <v>Barbara.Brown@henryschein.ca</v>
+      </c>
+      <c r="D60" t="str">
+        <f>Sheet1!C60</f>
+        <v>FSC Top 15 Summary for May 2018</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" ref="G60" si="5">$K60&amp;"\"&amp;L60</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
+      </c>
+      <c r="K60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" t="str">
+        <f>Sheet1!E60</f>
+        <v>201805_Zahn_Top15.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -2228,6 +2258,7 @@
     <hyperlink ref="B57" r:id="rId4" display="BusinessReporting.Canada@henryschein.ca"/>
     <hyperlink ref="B58" r:id="rId5" display="BusinessReporting.Canada@henryschein.ca"/>
     <hyperlink ref="B59" r:id="rId6" display="BusinessReporting.Canada@henryschein.ca"/>
+    <hyperlink ref="B60" r:id="rId7" display="BusinessReporting.Canada@henryschein.ca"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2235,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2655,11 +2686,11 @@
       </c>
       <c r="C2" t="str">
         <f>C3</f>
-        <v>FSC Top 15 Summary for April 2018</v>
+        <v>FSC Top 15 Summary for May 2018</v>
       </c>
       <c r="E2" t="str">
         <f>E3</f>
-        <v>201804_HALFX_Top15.xlsx</v>
+        <v>201805_HALFX_Top15.xlsx</v>
       </c>
       <c r="F2" t="str">
         <f>F3</f>
@@ -3309,7 +3340,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
@@ -3329,7 +3360,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F50" t="s">
         <v>44</v>
@@ -3337,13 +3368,13 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -3357,7 +3388,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
         <v>44</v>
@@ -3365,13 +3396,13 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
         <v>44</v>
@@ -3393,7 +3424,7 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>46</v>
@@ -3407,13 +3438,13 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" t="s">
         <v>44</v>
@@ -3421,13 +3452,13 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
         <v>44</v>
@@ -3441,7 +3472,7 @@
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
         <v>44</v>
@@ -3449,15 +3480,29 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
         <v>36</v>
       </c>
-      <c r="C59" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
         <v>50</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F60" t="s">
         <v>44</v>
       </c>
     </row>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Page" sheetId="1" r:id="rId1"/>
@@ -160,73 +160,73 @@
     <t>Marco.Mascitelli@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for May 2018</t>
-  </si>
-  <si>
-    <t>201805_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
     <t>mathieu.damour@henryschein.ca</t>
   </si>
   <si>
-    <t>201805_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201805_CALGY_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for June 2018</t>
+  </si>
+  <si>
+    <t>201806_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201806_CALGY_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:XFD61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -657,14 +657,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201805_HALFX_Top15.xlsx</v>
+        <v>201806_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -685,14 +685,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201805_HALFX_Top15.xlsx</v>
+        <v>201806_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -713,14 +713,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>39</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201805_NWFLD_Top15.xlsx</v>
+        <v>201806_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -731,7 +731,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -741,14 +741,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>39</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201805_QUEBC_Top15.xlsx</v>
+        <v>201806_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -769,14 +769,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>39</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201805_Zahn_Top15.xlsx</v>
+        <v>201806_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -797,14 +797,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_OTTWA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>39</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201805_OTTWA_Top15.xlsx</v>
+        <v>201806_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -825,14 +825,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201805_TOR02_Top15.xlsx</v>
+        <v>201806_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -853,14 +853,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>39</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201805_TOR03_Top15.xlsx</v>
+        <v>201806_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -871,7 +871,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -881,14 +881,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201805_TOR04_Top15.xlsx</v>
+        <v>201806_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -909,14 +909,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>39</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201805_TOR05_Top15.xlsx</v>
+        <v>201806_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -937,14 +937,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>39</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201805_MNTRL_Top15.xlsx</v>
+        <v>201806_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -965,14 +965,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>39</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201805_Zahn_Top15.xlsx</v>
+        <v>201806_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -993,14 +993,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_LONDN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_LONDN_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>39</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201805_LONDN_Top15.xlsx</v>
+        <v>201806_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1021,14 +1021,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>39</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201805_Zahn_Top15.xlsx</v>
+        <v>201806_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1049,14 +1049,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MEDIC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>39</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201805_MEDIC_Top15.xlsx</v>
+        <v>201806_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1077,14 +1077,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_EDMON_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>39</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201805_EDMON_Top15.xlsx</v>
+        <v>201806_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1105,14 +1105,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G55" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_EDMON_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>39</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201805_EDMON_Top15.xlsx</v>
+        <v>201806_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1133,14 +1133,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC01_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>39</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201805_VAC01_Top15.xlsx</v>
+        <v>201806_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1160,14 +1160,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC02_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>39</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201805_VAC02_Top15.xlsx</v>
+        <v>201806_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1187,14 +1187,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC03_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>39</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201805_VAC03_Top15.xlsx</v>
+        <v>201806_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1214,14 +1214,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC02_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>39</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201805_VIC02_Top15.xlsx</v>
+        <v>201806_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1241,14 +1241,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC03_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>39</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201805_VIC03_Top15.xlsx</v>
+        <v>201806_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1268,14 +1268,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC01_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC01_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>39</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201805_VAC01_Top15.xlsx</v>
+        <v>201806_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1295,14 +1295,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC02_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>39</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201805_VAC02_Top15.xlsx</v>
+        <v>201806_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1322,14 +1322,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VAC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC03_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>39</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201805_VAC03_Top15.xlsx</v>
+        <v>201806_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1349,14 +1349,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>39</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201805_VIC02_Top15.xlsx</v>
+        <v>201806_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1376,14 +1376,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>39</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201805_VIC03_Top15.xlsx</v>
+        <v>201806_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1403,14 +1403,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>39</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201805_TOR02_Top15.xlsx</v>
+        <v>201806_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1430,14 +1430,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>39</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201805_TOR03_Top15.xlsx</v>
+        <v>201806_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1457,14 +1457,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>39</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201805_TOR04_Top15.xlsx</v>
+        <v>201806_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1484,14 +1484,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>39</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201805_TOR05_Top15.xlsx</v>
+        <v>201806_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1511,14 +1511,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>39</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201805_Zahn_Top15.xlsx</v>
+        <v>201806_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1538,14 +1538,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>39</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201805_TOR02_Top15.xlsx</v>
+        <v>201806_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1565,14 +1565,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>39</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201805_TOR03_Top15.xlsx</v>
+        <v>201806_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1592,14 +1592,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>39</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201805_TOR04_Top15.xlsx</v>
+        <v>201806_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1619,14 +1619,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>39</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201805_TOR05_Top15.xlsx</v>
+        <v>201806_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>39</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201805_TOR02_Top15.xlsx</v>
+        <v>201806_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1673,14 +1673,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>39</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201805_TOR03_Top15.xlsx</v>
+        <v>201806_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1700,14 +1700,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>39</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201805_TOR04_Top15.xlsx</v>
+        <v>201806_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1727,14 +1727,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>39</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201805_TOR05_Top15.xlsx</v>
+        <v>201806_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1754,14 +1754,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>39</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201805_TOR02_Top15.xlsx</v>
+        <v>201806_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1781,14 +1781,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>39</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201805_TOR03_Top15.xlsx</v>
+        <v>201806_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1808,14 +1808,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR04_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>39</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201805_TOR04_Top15.xlsx</v>
+        <v>201806_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1835,14 +1835,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_TOR05_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>39</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201805_TOR05_Top15.xlsx</v>
+        <v>201806_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1862,14 +1862,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_EDMON_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_EDMON_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>39</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201805_EDMON_Top15.xlsx</v>
+        <v>201806_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1889,14 +1889,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_NWFLD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>39</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201805_NWFLD_Top15.xlsx</v>
+        <v>201806_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1916,14 +1916,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_HALFX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_HALFX_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>39</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201805_HALFX_Top15.xlsx</v>
+        <v>201806_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1943,14 +1943,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>39</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201805_MNTRL_Top15.xlsx</v>
+        <v>201806_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1970,14 +1970,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>39</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201805_MNTRL_Top15.xlsx</v>
+        <v>201806_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1997,14 +1997,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>39</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201805_QUEBC_Top15.xlsx</v>
+        <v>201806_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2024,14 +2024,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_MNTRL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>39</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201805_MNTRL_Top15.xlsx</v>
+        <v>201806_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2051,14 +2051,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_QUEBC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>39</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201805_QUEBC_Top15.xlsx</v>
+        <v>201806_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2078,14 +2078,14 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_REGIN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_REGIN_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>39</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201805_REGIN_Top15.xlsx</v>
+        <v>201806_REGIN_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2105,14 +2105,14 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_WINPG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_WINPG_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>39</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201805_WINPG_Top15.xlsx</v>
+        <v>201806_WINPG_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2132,14 +2132,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" ref="G56:G58" si="3">$K56&amp;"\"&amp;L56</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_CALGY_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>39</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201805_CALGY_Top15.xlsx</v>
+        <v>201806_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2159,14 +2159,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_CALGY_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_CALGY_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>39</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201805_CALGY_Top15.xlsx</v>
+        <v>201806_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2186,14 +2186,14 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC02_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC02_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>39</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201805_VIC02_Top15.xlsx</v>
+        <v>201806_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2213,14 +2213,14 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" ref="G59" si="4">$K59&amp;"\"&amp;L59</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_VIC03_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC03_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>39</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201805_VIC03_Top15.xlsx</v>
+        <v>201806_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="D60" t="str">
         <f>Sheet1!C60</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2240,14 +2240,14 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" ref="G60" si="5">$K60&amp;"\"&amp;L60</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201805_Zahn_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>39</v>
       </c>
       <c r="L60" t="str">
         <f>Sheet1!E60</f>
-        <v>201805_Zahn_Top15.xlsx</v>
+        <v>201806_Zahn_Top15.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F60"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="C2" t="str">
         <f>C3</f>
-        <v>FSC Top 15 Summary for May 2018</v>
+        <v>FSC Top 15 Summary for June 2018</v>
       </c>
       <c r="E2" t="str">
         <f>E3</f>
-        <v>201805_HALFX_Top15.xlsx</v>
+        <v>201806_HALFX_Top15.xlsx</v>
       </c>
       <c r="F2" t="str">
         <f>F3</f>
@@ -2702,10 +2702,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2716,10 +2716,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -2730,10 +2730,10 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>44</v>
@@ -2744,10 +2744,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
@@ -2758,10 +2758,10 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>44</v>
@@ -2772,10 +2772,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -2786,10 +2786,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -2800,10 +2800,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>44</v>
@@ -2814,10 +2814,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
@@ -2828,10 +2828,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
         <v>44</v>
@@ -2842,10 +2842,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
@@ -2856,10 +2856,10 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -2870,10 +2870,10 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
@@ -2884,10 +2884,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -2898,10 +2898,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -2912,10 +2912,10 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
         <v>44</v>
@@ -2926,10 +2926,10 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
@@ -2940,10 +2940,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -2954,10 +2954,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>44</v>
@@ -2968,10 +2968,10 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22" t="s">
         <v>44</v>
@@ -2982,10 +2982,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -2996,10 +2996,10 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
@@ -3010,10 +3010,10 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
         <v>44</v>
@@ -3024,10 +3024,10 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
         <v>44</v>
@@ -3038,10 +3038,10 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
         <v>44</v>
@@ -3052,10 +3052,10 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s">
         <v>44</v>
@@ -3066,10 +3066,10 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
         <v>44</v>
@@ -3080,10 +3080,10 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -3094,10 +3094,10 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -3108,10 +3108,10 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3122,10 +3122,10 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
@@ -3136,10 +3136,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34" t="s">
         <v>44</v>
@@ -3150,10 +3150,10 @@
         <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -3164,10 +3164,10 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
         <v>44</v>
@@ -3178,10 +3178,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
         <v>44</v>
@@ -3192,10 +3192,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -3206,10 +3206,10 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -3220,10 +3220,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
@@ -3234,10 +3234,10 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
         <v>44</v>
@@ -3248,10 +3248,10 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s">
         <v>44</v>
@@ -3262,10 +3262,10 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
         <v>44</v>
@@ -3276,10 +3276,10 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
         <v>44</v>
@@ -3290,10 +3290,10 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
         <v>44</v>
@@ -3304,10 +3304,10 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46" t="s">
         <v>44</v>
@@ -3318,10 +3318,10 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -3329,10 +3329,10 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" t="s">
         <v>44</v>
@@ -3340,13 +3340,13 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F49" t="s">
         <v>44</v>
@@ -3357,10 +3357,10 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
         <v>44</v>
@@ -3371,10 +3371,10 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F51" t="s">
         <v>44</v>
@@ -3385,10 +3385,10 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
         <v>44</v>
@@ -3399,10 +3399,10 @@
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F53" t="s">
         <v>44</v>
@@ -3413,7 +3413,7 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
         <v>66</v>
@@ -3427,7 +3427,7 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
         <v>67</v>
@@ -3441,7 +3441,7 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
         <v>68</v>
@@ -3455,7 +3455,7 @@
         <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
         <v>68</v>
@@ -3469,10 +3469,10 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
         <v>44</v>
@@ -3483,10 +3483,10 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F59" t="s">
         <v>44</v>
@@ -3497,10 +3497,10 @@
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
         <v>44</v>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J050_TOP15_FSC_BR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J050_TOP15_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3210A4B1-B2EE-49E4-8973-71F2121B8D1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Page" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="69">
   <si>
     <t>msg</t>
   </si>
@@ -139,9 +140,6 @@
     <t>bill.dowe@henryschein.ca</t>
   </si>
   <si>
-    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15</t>
-  </si>
-  <si>
     <t>Jean-Francois.Carmichael@henryschein.ca</t>
   </si>
   <si>
@@ -163,76 +161,79 @@
     <t>mathieu.damour@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for June 2018</t>
-  </si>
-  <si>
-    <t>201806_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201806_CALGY_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for July 2018</t>
+  </si>
+  <si>
+    <t>201807_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201807_CALGY_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,12 +575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +648,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -657,14 +658,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201806_HALFX_Top15.xlsx</v>
+        <v>201807_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -675,7 +676,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -685,14 +686,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201806_HALFX_Top15.xlsx</v>
+        <v>201807_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -703,7 +704,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -712,15 +713,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_NWFLD_Top15.xlsx</v>
+        <f t="shared" ref="G4:G60" si="1">$K4&amp;"\"&amp;L4</f>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201806_NWFLD_Top15.xlsx</v>
+        <v>201807_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -731,7 +732,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -741,14 +742,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201806_QUEBC_Top15.xlsx</v>
+        <v>201807_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -759,7 +760,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -769,14 +770,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201806_Zahn_Top15.xlsx</v>
+        <v>201807_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -787,7 +788,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -797,14 +798,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_OTTWA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201806_OTTWA_Top15.xlsx</v>
+        <v>201807_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -815,7 +816,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -825,14 +826,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201806_TOR02_Top15.xlsx</v>
+        <v>201807_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -843,7 +844,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -853,14 +854,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201806_TOR03_Top15.xlsx</v>
+        <v>201807_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -871,7 +872,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -881,14 +882,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201806_TOR04_Top15.xlsx</v>
+        <v>201807_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -899,7 +900,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -909,14 +910,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201806_TOR05_Top15.xlsx</v>
+        <v>201807_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -927,7 +928,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -937,14 +938,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201806_MNTRL_Top15.xlsx</v>
+        <v>201807_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -955,7 +956,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -965,14 +966,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201806_Zahn_Top15.xlsx</v>
+        <v>201807_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -983,7 +984,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -993,14 +994,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_LONDN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_LONDN_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201806_LONDN_Top15.xlsx</v>
+        <v>201807_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1011,7 +1012,7 @@
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1021,14 +1022,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201806_Zahn_Top15.xlsx</v>
+        <v>201807_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1049,14 +1050,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MEDIC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201806_MEDIC_Top15.xlsx</v>
+        <v>201807_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1067,7 +1068,7 @@
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1077,14 +1078,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_EDMON_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201806_EDMON_Top15.xlsx</v>
+        <v>201807_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1095,7 +1096,7 @@
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1104,15 +1105,15 @@
         <v>1</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ref="G18:G55" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_EDMON_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_EDMON_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201806_EDMON_Top15.xlsx</v>
+        <v>201807_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1123,7 +1124,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1132,25 +1133,26 @@
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC01_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC01_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201806_VAC01_Top15.xlsx</v>
+        <v>201807_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" t="str">
         <f>Sheet1!B20</f>
         <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1159,25 +1161,26 @@
         <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC02_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201806_VAC02_Top15.xlsx</v>
+        <v>201807_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
       <c r="B21" t="str">
         <f>Sheet1!B21</f>
         <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1186,25 +1189,26 @@
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC03_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201806_VAC03_Top15.xlsx</v>
+        <v>201807_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
       <c r="B22" t="str">
         <f>Sheet1!B22</f>
         <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1213,25 +1217,26 @@
         <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC02_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201806_VIC02_Top15.xlsx</v>
+        <v>201807_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="B23" t="str">
         <f>Sheet1!B23</f>
         <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1240,25 +1245,26 @@
         <v>1</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC03_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201806_VIC03_Top15.xlsx</v>
+        <v>201807_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
       <c r="B24" t="str">
         <f>Sheet1!B24</f>
         <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1267,25 +1273,26 @@
         <v>1</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC01_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC01_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201806_VAC01_Top15.xlsx</v>
+        <v>201807_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
       <c r="B25" t="str">
         <f>Sheet1!B25</f>
         <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1294,25 +1301,26 @@
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC02_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201806_VAC02_Top15.xlsx</v>
+        <v>201807_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
       <c r="B26" t="str">
         <f>Sheet1!B26</f>
         <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1321,25 +1329,26 @@
         <v>1</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VAC03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC03_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201806_VAC03_Top15.xlsx</v>
+        <v>201807_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
       <c r="B27" t="str">
         <f>Sheet1!B27</f>
         <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1348,25 +1357,26 @@
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201806_VIC02_Top15.xlsx</v>
+        <v>201807_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
       <c r="B28" t="str">
         <f>Sheet1!B28</f>
         <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1375,25 +1385,26 @@
         <v>1</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201806_VIC03_Top15.xlsx</v>
+        <v>201807_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
       <c r="B29" t="str">
         <f>Sheet1!B29</f>
         <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1402,25 +1413,26 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201806_TOR02_Top15.xlsx</v>
+        <v>201807_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
       <c r="B30" t="str">
         <f>Sheet1!B30</f>
         <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1429,25 +1441,26 @@
         <v>1</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201806_TOR03_Top15.xlsx</v>
+        <v>201807_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
       <c r="B31" t="str">
         <f>Sheet1!B31</f>
         <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1456,25 +1469,26 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201806_TOR04_Top15.xlsx</v>
+        <v>201807_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
       <c r="B32" t="str">
         <f>Sheet1!B32</f>
         <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1483,25 +1497,26 @@
         <v>1</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201806_TOR05_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR05_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
       <c r="B33" t="str">
         <f>Sheet1!B33</f>
         <v>denise.kusinski@zahncanada.ca</v>
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1510,25 +1525,26 @@
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201806_Zahn_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_Zahn_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
       <c r="B34" t="str">
         <f>Sheet1!B34</f>
         <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1537,25 +1553,26 @@
         <v>1</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201806_TOR02_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR02_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
       <c r="B35" t="str">
         <f>Sheet1!B35</f>
         <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1564,25 +1581,26 @@
         <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201806_TOR03_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
       <c r="B36" t="str">
         <f>Sheet1!B36</f>
         <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1591,25 +1609,26 @@
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201806_TOR04_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR04_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
       <c r="B37" t="str">
         <f>Sheet1!B37</f>
         <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1618,25 +1637,26 @@
         <v>1</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201806_TOR05_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR05_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
       <c r="B38" t="str">
         <f>Sheet1!B38</f>
         <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1645,25 +1665,26 @@
         <v>1</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201806_TOR02_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR02_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
       <c r="B39" t="str">
         <f>Sheet1!B39</f>
         <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1672,25 +1693,26 @@
         <v>1</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201806_TOR03_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
       <c r="B40" t="str">
         <f>Sheet1!B40</f>
         <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1699,25 +1721,26 @@
         <v>1</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201806_TOR04_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR04_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
       <c r="B41" t="str">
         <f>Sheet1!B41</f>
         <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1726,25 +1749,26 @@
         <v>1</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201806_TOR05_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR05_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
       <c r="B42" t="str">
         <f>Sheet1!B42</f>
         <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1753,25 +1777,26 @@
         <v>1</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201806_TOR02_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR02_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
       <c r="B43" t="str">
         <f>Sheet1!B43</f>
         <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1780,25 +1805,26 @@
         <v>1</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201806_TOR03_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
       <c r="B44" t="str">
         <f>Sheet1!B44</f>
         <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1807,25 +1833,26 @@
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR04_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201806_TOR04_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR04_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
       <c r="B45" t="str">
         <f>Sheet1!B45</f>
         <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1834,25 +1861,26 @@
         <v>1</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_TOR05_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201806_TOR05_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_TOR05_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
       <c r="B46" t="str">
         <f>Sheet1!B46</f>
         <v>Murray.Johnson@henryschein.ca</v>
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1861,25 +1889,26 @@
         <v>1</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_EDMON_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_EDMON_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201806_EDMON_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_EDMON_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
       <c r="B47" t="str">
         <f>Sheet1!B47</f>
         <v>Larry.Abbott@henryschein.ca</v>
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1888,25 +1917,26 @@
         <v>1</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_NWFLD_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201806_NWFLD_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_NWFLD_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
       <c r="B48" t="str">
         <f>Sheet1!B48</f>
         <v>Jason.Tingley@henryschein.ca</v>
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1915,25 +1945,26 @@
         <v>1</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_HALFX_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_HALFX_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201806_HALFX_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_HALFX_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" t="str">
         <f>Sheet1!B49</f>
         <v>mathieu.damour@henryschein.ca</v>
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1942,25 +1973,26 @@
         <v>1</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201806_MNTRL_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_MNTRL_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
       <c r="B50" t="str">
         <f>Sheet1!B50</f>
         <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1969,25 +2001,26 @@
         <v>1</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201806_MNTRL_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_MNTRL_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
       <c r="B51" t="str">
         <f>Sheet1!B51</f>
         <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1996,25 +2029,26 @@
         <v>1</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_QUEBC_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201806_QUEBC_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_QUEBC_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
       <c r="B52" t="str">
         <f>Sheet1!B52</f>
         <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2023,25 +2057,26 @@
         <v>1</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_MNTRL_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201806_MNTRL_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_MNTRL_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
       <c r="B53" t="str">
         <f>Sheet1!B53</f>
         <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2050,25 +2085,26 @@
         <v>1</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_QUEBC_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201806_QUEBC_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_QUEBC_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
       <c r="B54" t="str">
         <f>Sheet1!B54</f>
         <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2077,25 +2113,26 @@
         <v>1</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_REGIN_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_REGIN_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201806_REGIN_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_REGIN_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
       <c r="B55" t="str">
         <f>Sheet1!B55</f>
         <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2104,25 +2141,26 @@
         <v>1</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_WINPG_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_WINPG_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201806_WINPG_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_WINPG_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
       <c r="B56" t="str">
         <f>Sheet1!B56</f>
         <v>Greg.Christensen@henryschein.ca</v>
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2131,25 +2169,26 @@
         <v>1</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" ref="G56:G58" si="3">$K56&amp;"\"&amp;L56</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_CALGY_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_CALGY_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201806_CALGY_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_CALGY_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
       <c r="B57" t="str">
         <f>Sheet1!B57</f>
         <v>Danelle.Fulawka@henryschein.ca</v>
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2158,25 +2197,26 @@
         <v>1</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_CALGY_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_CALGY_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201806_CALGY_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_CALGY_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
       <c r="B58" t="str">
         <f>Sheet1!B58</f>
         <v>Glenn.Turko@henryschein.ca</v>
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2185,25 +2225,26 @@
         <v>1</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC02_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC02_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201806_VIC02_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_VIC02_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
       <c r="B59" t="str">
         <f>Sheet1!B59</f>
         <v>Glenn.Turko@henryschein.ca</v>
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2212,25 +2253,26 @@
         <v>1</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" ref="G59" si="4">$K59&amp;"\"&amp;L59</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_VIC03_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC03_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201806_VIC03_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+        <v>201807_VIC03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
       <c r="B60" t="str">
         <f>Sheet1!B60</f>
         <v>Barbara.Brown@henryschein.ca</v>
       </c>
       <c r="D60" t="str">
         <f>Sheet1!C60</f>
-        <v>FSC Top 15 Summary for June 2018</v>
+        <v>FSC Top 15 Summary for July 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2239,37 +2281,89 @@
         <v>1</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" ref="G60" si="5">$K60&amp;"\"&amp;L60</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201806_Zahn_Top15.xlsx</v>
+        <f t="shared" si="1"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="L60" t="str">
         <f>Sheet1!E60</f>
-        <v>201806_Zahn_Top15.xlsx</v>
+        <v>201807_Zahn_Top15.xlsx</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="BusinessReporting.Canada@henryschein.ca"/>
-    <hyperlink ref="B3:B55" r:id="rId2" display="BusinessReporting.Canada@henryschein.ca"/>
-    <hyperlink ref="B56" r:id="rId3" display="BusinessReporting.Canada@henryschein.ca"/>
-    <hyperlink ref="B57" r:id="rId4" display="BusinessReporting.Canada@henryschein.ca"/>
-    <hyperlink ref="B58" r:id="rId5" display="BusinessReporting.Canada@henryschein.ca"/>
-    <hyperlink ref="B59" r:id="rId6" display="BusinessReporting.Canada@henryschein.ca"/>
-    <hyperlink ref="B60" r:id="rId7" display="BusinessReporting.Canada@henryschein.ca"/>
+    <hyperlink ref="B2" r:id="rId1" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3:B55" r:id="rId2" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{64082307-6BEB-42E1-AFCF-45352A14A853}"/>
+    <hyperlink ref="B5" r:id="rId4" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{553BA672-504B-42E7-9EE4-7C72E0F33F78}"/>
+    <hyperlink ref="B6" r:id="rId5" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{4EE02843-2851-4EA1-BB10-DED9C4B7E95F}"/>
+    <hyperlink ref="B7" r:id="rId6" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{B5672E0E-9847-4144-A5A9-55C3E250ECDA}"/>
+    <hyperlink ref="B8" r:id="rId7" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{75B05A3D-7CC2-40DF-B43F-94883987FC52}"/>
+    <hyperlink ref="B9" r:id="rId8" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{EC8F8111-6FD9-44FE-B3DF-7A5D8ED0E0A3}"/>
+    <hyperlink ref="B10" r:id="rId9" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{2EA46756-5235-4AD4-BB31-F01B41522FE5}"/>
+    <hyperlink ref="B11" r:id="rId10" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{6F193E98-CAAB-42FD-990D-4BF44D8EE2FF}"/>
+    <hyperlink ref="B12" r:id="rId11" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{6E3B1F22-2C0B-461E-8ADC-8CA4CA5BDAF4}"/>
+    <hyperlink ref="B13" r:id="rId12" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{C007A2AF-05E1-47FE-9BD9-620AADED6E1F}"/>
+    <hyperlink ref="B14" r:id="rId13" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{7AA67883-5F6D-4ADE-917A-DAB1002CE2CC}"/>
+    <hyperlink ref="B15" r:id="rId14" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{3502F7F9-2934-4C1E-961D-7CB39F97EDA1}"/>
+    <hyperlink ref="B16" r:id="rId15" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{B109D651-07FA-453F-A359-4A7FA39995D4}"/>
+    <hyperlink ref="B17" r:id="rId16" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{8494A272-F985-4AC8-9968-046E713543A6}"/>
+    <hyperlink ref="B18" r:id="rId17" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{61D3B3A6-55E6-4F91-BD2D-8A50065C3532}"/>
+    <hyperlink ref="B19" r:id="rId18" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{0407413B-040B-4DCB-B78D-660D50A8B165}"/>
+    <hyperlink ref="B20" r:id="rId19" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{AE7D9FFE-C790-4CE2-B48F-0BC9DC6A6154}"/>
+    <hyperlink ref="B21" r:id="rId20" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{0A237E07-48E5-407E-957A-2CB9C6C149CB}"/>
+    <hyperlink ref="B22" r:id="rId21" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{26CA3B89-5E17-4719-A897-6AA5AAFFD8E5}"/>
+    <hyperlink ref="B23" r:id="rId22" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{9A527CDD-8D47-4FD0-A21F-3CE312744628}"/>
+    <hyperlink ref="B24" r:id="rId23" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{6B29E2F8-8EB8-477F-83EF-292AD7D2ADCB}"/>
+    <hyperlink ref="B25" r:id="rId24" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{043C44A6-8235-48D0-8942-6A2AE9764E96}"/>
+    <hyperlink ref="B26" r:id="rId25" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{BB0DED01-1F1F-4343-A995-2929354851BD}"/>
+    <hyperlink ref="B27" r:id="rId26" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{774B18F0-13B7-4463-ADCB-B0D1B605A743}"/>
+    <hyperlink ref="B28" r:id="rId27" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{7DA559B0-E6C2-4B58-ADFF-D0FD2F4BF208}"/>
+    <hyperlink ref="B29" r:id="rId28" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{C6D020E7-1F7B-4785-876D-21E85EC50D3D}"/>
+    <hyperlink ref="B30" r:id="rId29" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{0716949D-24EF-43B3-B07C-8D7E259C5956}"/>
+    <hyperlink ref="B31" r:id="rId30" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{B96D4F86-6333-4346-B831-A05BC1E190A6}"/>
+    <hyperlink ref="B32" r:id="rId31" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{2DA64D47-6976-4A3D-B0D2-2E7F4FDF1FDF}"/>
+    <hyperlink ref="B33" r:id="rId32" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{E8DBF823-2CB5-4004-9B41-35D159EADD64}"/>
+    <hyperlink ref="B34" r:id="rId33" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{9E406BD2-725D-495C-B701-B31E5B07D043}"/>
+    <hyperlink ref="B35" r:id="rId34" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{8AE4B9C8-6F06-45ED-B2EB-6175BAD36FD8}"/>
+    <hyperlink ref="B36" r:id="rId35" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{D6464C2F-AA93-4D6B-A116-56F165B1142B}"/>
+    <hyperlink ref="B37" r:id="rId36" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{B2AFF943-3CA6-4346-9212-4B6256FBB23D}"/>
+    <hyperlink ref="B38" r:id="rId37" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{A4A4B373-E65B-4351-A53D-76A0A8768271}"/>
+    <hyperlink ref="B39" r:id="rId38" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{2D54B402-0E74-4C7E-AC4B-EEB6A6119B81}"/>
+    <hyperlink ref="B40" r:id="rId39" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{DB5D3CC8-FEE1-4FD6-B82C-2B064BF9E6B8}"/>
+    <hyperlink ref="B41" r:id="rId40" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{ACE027B4-307B-46A6-BD01-D0BCFD4C5961}"/>
+    <hyperlink ref="B42" r:id="rId41" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{6386FE3C-352C-4526-A31F-4C6B48A2F228}"/>
+    <hyperlink ref="B43" r:id="rId42" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{72D6689E-E913-4E75-8DDB-45158B8A1DAF}"/>
+    <hyperlink ref="B44" r:id="rId43" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{79ACE19D-F44C-4DC1-847C-3FA45C5E64F6}"/>
+    <hyperlink ref="B45" r:id="rId44" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{E2D0CDD5-1493-4264-932A-B347282F0D95}"/>
+    <hyperlink ref="B46" r:id="rId45" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{414963FA-95B8-412A-86D3-AE82C38221E9}"/>
+    <hyperlink ref="B47" r:id="rId46" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{FBD67513-D0EA-48D0-8859-8C15C309CDDF}"/>
+    <hyperlink ref="B48" r:id="rId47" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{A1A288C2-F6DA-4840-BB4A-1AC44FA5FB37}"/>
+    <hyperlink ref="B49" r:id="rId48" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{81C874E4-7B42-4D2C-9153-D57CD7ACBDD3}"/>
+    <hyperlink ref="B50" r:id="rId49" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{FF2FD53E-2226-422F-9F57-A03EABE8F7A9}"/>
+    <hyperlink ref="B51" r:id="rId50" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{C43903DB-9F0E-4F11-A29A-3C60C1BC6933}"/>
+    <hyperlink ref="B52" r:id="rId51" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{EB4BCDFC-ECD9-47DD-8894-66023464593B}"/>
+    <hyperlink ref="B53" r:id="rId52" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{37438085-07BB-4F6B-B86A-B343D36F139D}"/>
+    <hyperlink ref="B54" r:id="rId53" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{48620DA6-122D-42B1-8CE5-90B906348CDC}"/>
+    <hyperlink ref="B55" r:id="rId54" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{23139750-F5B7-44D0-867C-01E0B43F36EB}"/>
+    <hyperlink ref="B56" r:id="rId55" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{2760D0A8-9901-493F-82DC-1124A9E8FFA9}"/>
+    <hyperlink ref="B57" r:id="rId56" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{025779F2-5C6C-47CD-B1E9-E502F708C3B1}"/>
+    <hyperlink ref="B58" r:id="rId57" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{5583E52E-EE90-4045-A897-37F3BFFC5F7B}"/>
+    <hyperlink ref="B59" r:id="rId58" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{E963D349-3269-4161-876A-CC77362E2D93}"/>
+    <hyperlink ref="B60" r:id="rId59" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{CB2EF48D-4172-45F7-9F64-3FA1BFBE964D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2665,7 +2759,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2684,17 +2778,14 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="str">
-        <f>C3</f>
-        <v>FSC Top 15 Summary for June 2018</v>
-      </c>
-      <c r="E2" t="str">
-        <f>E3</f>
-        <v>201806_HALFX_Top15.xlsx</v>
-      </c>
-      <c r="F2" t="str">
-        <f>F3</f>
-        <v/>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2702,13 +2793,13 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,27 +2807,27 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2744,13 +2835,13 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2758,13 +2849,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,13 +2863,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2786,13 +2877,13 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,13 +2891,13 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2814,13 +2905,13 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2828,13 +2919,13 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,13 +2933,13 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,27 +2947,27 @@
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,13 +2975,13 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -2898,13 +2989,13 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -2912,13 +3003,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -2926,13 +3017,13 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -2940,13 +3031,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -2954,13 +3045,13 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -2968,13 +3059,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -2982,13 +3073,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -2996,13 +3087,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -3010,13 +3101,13 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -3024,13 +3115,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -3038,13 +3129,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -3052,13 +3143,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -3066,13 +3157,13 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -3080,13 +3171,13 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -3094,13 +3185,13 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -3108,13 +3199,13 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -3122,125 +3213,125 @@
         <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -3248,13 +3339,13 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -3262,13 +3353,13 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -3276,13 +3367,13 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -3290,13 +3381,13 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -3304,13 +3395,13 @@
         <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -3318,10 +3409,10 @@
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -3329,27 +3420,27 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
         <v>47</v>
       </c>
-      <c r="E48" t="s">
-        <v>48</v>
-      </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -3357,13 +3448,13 @@
         <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -3371,13 +3462,13 @@
         <v>32</v>
       </c>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -3385,13 +3476,13 @@
         <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -3399,13 +3490,13 @@
         <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -3413,13 +3504,13 @@
         <v>15</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -3427,13 +3518,13 @@
         <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -3441,13 +3532,13 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -3455,13 +3546,13 @@
         <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -3469,13 +3560,13 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -3483,13 +3574,13 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -3497,18 +3588,18 @@
         <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J050_TOP15_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3210A4B1-B2EE-49E4-8973-71F2121B8D1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A9B537D-501E-4951-B51F-929CDFBD8155}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="70">
   <si>
     <t>msg</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Greg.Christensen@henryschein.ca</t>
   </si>
   <si>
-    <t>Danelle.Fulawka@henryschein.ca</t>
-  </si>
-  <si>
     <t>Barbara.Brown@henryschein.ca</t>
   </si>
   <si>
@@ -161,73 +158,79 @@
     <t>mathieu.damour@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for July 2018</t>
-  </si>
-  <si>
-    <t>201807_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201807_CALGY_Top15.xlsx</t>
-  </si>
-  <si>
     <t>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15</t>
+  </si>
+  <si>
+    <t>FSC Top 15 Summary for August 2018</t>
+  </si>
+  <si>
+    <t>201808_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>jeff.vandamme@zahncanada.ca</t>
+  </si>
+  <si>
+    <t>201808_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>Chris.Nicolson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>201808_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201808_CALGY_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -577,10 +580,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -648,7 +651,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -658,14 +661,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201807_HALFX_Top15.xlsx</v>
+        <v>201808_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -676,7 +679,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -686,14 +689,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201807_HALFX_Top15.xlsx</v>
+        <v>201808_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -704,7 +707,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -714,14 +717,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G60" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_NWFLD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201807_NWFLD_Top15.xlsx</v>
+        <v>201808_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -732,7 +735,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -742,14 +745,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201807_QUEBC_Top15.xlsx</v>
+        <v>201808_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -760,7 +763,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -770,25 +773,25 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201807_Zahn_Top15.xlsx</v>
+        <v>201808_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="str">
         <f>Sheet1!B7</f>
-        <v>Scott.Kennedy@henryschein.ca</v>
+        <v>jeff.vandamme@zahncanada.ca</v>
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -798,25 +801,25 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_OTTWA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201807_OTTWA_Top15.xlsx</v>
+        <v>201808_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="str">
         <f>Sheet1!B8</f>
-        <v>Jason.Brown@henryschein.ca</v>
+        <v>Scott.Kennedy@henryschein.ca</v>
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -826,25 +829,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201807_TOR02_Top15.xlsx</v>
+        <v>201808_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="str">
         <f>Sheet1!B9</f>
-        <v>Jason.Brown@henryschein.ca</v>
+        <v>Chris.Nicolson@henryschein.ca</v>
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -854,14 +857,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201807_TOR03_Top15.xlsx</v>
+        <v>201808_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -872,7 +875,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -882,14 +885,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201807_TOR04_Top15.xlsx</v>
+        <v>201808_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -900,7 +903,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -910,25 +913,25 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201807_TOR05_Top15.xlsx</v>
+        <v>201808_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="str">
         <f>Sheet1!B12</f>
-        <v>Frederic.Gagnon@henryschein.ca</v>
+        <v>Jason.Brown@henryschein.ca</v>
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -938,25 +941,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR04_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201807_MNTRL_Top15.xlsx</v>
+        <v>201808_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="str">
         <f>Sheet1!B13</f>
-        <v>Bill.Dowe@ZahnCanada.ca</v>
+        <v>Jason.Brown@henryschein.ca</v>
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -966,25 +969,25 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201807_Zahn_Top15.xlsx</v>
+        <v>201808_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="str">
         <f>Sheet1!B14</f>
-        <v>bill.dowe@henryschein.ca</v>
+        <v>Chris.Nicolson@henryschein.ca</v>
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -994,25 +997,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_LONDN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201807_LONDN_Top15.xlsx</v>
+        <v>201808_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="str">
         <f>Sheet1!B15</f>
-        <v>Marco.Mascitelli@henryschein.ca</v>
+        <v>Chris.Nicolson@henryschein.ca</v>
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1022,25 +1025,25 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201807_Zahn_Top15.xlsx</v>
+        <v>201808_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="str">
         <f>Sheet1!B16</f>
-        <v>Audrey.Wiens@henryschein.ca</v>
+        <v>Chris.Nicolson@henryschein.ca</v>
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1050,25 +1053,25 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MEDIC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR04_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201807_MEDIC_Top15.xlsx</v>
+        <v>201808_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="str">
         <f>Sheet1!B17</f>
-        <v>Josee.Cherfan@henryschein.ca</v>
+        <v>Chris.Nicolson@henryschein.ca</v>
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1078,25 +1081,25 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201807_EDMON_Top15.xlsx</v>
+        <v>201808_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="str">
         <f>Sheet1!B18</f>
-        <v>Dean.Pollard@henryschein.ca</v>
+        <v>Frederic.Gagnon@henryschein.ca</v>
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1106,25 +1109,25 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201807_EDMON_Top15.xlsx</v>
+        <v>201808_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="str">
         <f>Sheet1!B19</f>
-        <v>John.Meredith@henryschein.ca</v>
+        <v>Bill.Dowe@ZahnCanada.ca</v>
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1134,25 +1137,25 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC01_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201807_VAC01_Top15.xlsx</v>
+        <v>201808_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" t="str">
         <f>Sheet1!B20</f>
-        <v>John.Meredith@henryschein.ca</v>
+        <v>bill.dowe@henryschein.ca</v>
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1162,25 +1165,25 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_LONDN_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201807_VAC02_Top15.xlsx</v>
+        <v>201808_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" t="str">
         <f>Sheet1!B21</f>
-        <v>John.Meredith@henryschein.ca</v>
+        <v>Chris.Nicolson@henryschein.ca</v>
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1190,25 +1193,25 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_LONDN_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201807_VAC03_Top15.xlsx</v>
+        <v>201808_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" t="str">
         <f>Sheet1!B22</f>
-        <v>John.Meredith@henryschein.ca</v>
+        <v>Marco.Mascitelli@henryschein.ca</v>
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1218,25 +1221,25 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201807_VIC02_Top15.xlsx</v>
+        <v>201808_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" t="str">
         <f>Sheet1!B23</f>
-        <v>John.Meredith@henryschein.ca</v>
+        <v>Audrey.Wiens@henryschein.ca</v>
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1246,25 +1249,25 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201807_VIC03_Top15.xlsx</v>
+        <v>201808_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" t="str">
         <f>Sheet1!B24</f>
-        <v>Adam.Jones@henryschein.ca</v>
+        <v>Josee.Cherfan@henryschein.ca</v>
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1274,25 +1277,25 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC01_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_EDMON_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201807_VAC01_Top15.xlsx</v>
+        <v>201808_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" t="str">
         <f>Sheet1!B25</f>
-        <v>Adam.Jones@henryschein.ca</v>
+        <v>Dean.Pollard@henryschein.ca</v>
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1302,25 +1305,25 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_EDMON_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201807_VAC02_Top15.xlsx</v>
+        <v>201808_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" t="str">
         <f>Sheet1!B26</f>
-        <v>Adam.Jones@henryschein.ca</v>
+        <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1330,25 +1333,25 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VAC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC01_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201807_VAC03_Top15.xlsx</v>
+        <v>201808_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" t="str">
         <f>Sheet1!B27</f>
-        <v>Adam.Jones@henryschein.ca</v>
+        <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1358,25 +1361,25 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201807_VIC02_Top15.xlsx</v>
+        <v>201808_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" t="str">
         <f>Sheet1!B28</f>
-        <v>Adam.Jones@henryschein.ca</v>
+        <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1386,25 +1389,25 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201807_VIC03_Top15.xlsx</v>
+        <v>201808_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" t="str">
         <f>Sheet1!B29</f>
-        <v>Jason.Schuler@henryschein.ca</v>
+        <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1414,25 +1417,25 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201807_TOR02_Top15.xlsx</v>
+        <v>201808_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" t="str">
         <f>Sheet1!B30</f>
-        <v>Jason.Schuler@henryschein.ca</v>
+        <v>John.Meredith@henryschein.ca</v>
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1442,25 +1445,25 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201807_TOR03_Top15.xlsx</v>
+        <v>201808_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" t="str">
         <f>Sheet1!B31</f>
-        <v>Jason.Schuler@henryschein.ca</v>
+        <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1470,25 +1473,25 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC01_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201807_TOR04_Top15.xlsx</v>
+        <v>201808_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" t="str">
         <f>Sheet1!B32</f>
-        <v>Jason.Schuler@henryschein.ca</v>
+        <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1498,25 +1501,25 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC02_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201807_TOR05_Top15.xlsx</v>
+        <v>201808_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" t="str">
         <f>Sheet1!B33</f>
-        <v>denise.kusinski@zahncanada.ca</v>
+        <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1526,25 +1529,25 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC03_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201807_Zahn_Top15.xlsx</v>
+        <v>201808_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" t="str">
         <f>Sheet1!B34</f>
-        <v>Naghmeh.Hafezi@henryschein.ca</v>
+        <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1554,25 +1557,25 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201807_TOR02_Top15.xlsx</v>
+        <v>201808_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" t="str">
         <f>Sheet1!B35</f>
-        <v>Naghmeh.Hafezi@henryschein.ca</v>
+        <v>Adam.Jones@henryschein.ca</v>
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1582,25 +1585,25 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201807_TOR03_Top15.xlsx</v>
+        <v>201808_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" t="str">
         <f>Sheet1!B36</f>
-        <v>Naghmeh.Hafezi@henryschein.ca</v>
+        <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1610,25 +1613,25 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201807_TOR04_Top15.xlsx</v>
+        <v>201808_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" t="str">
         <f>Sheet1!B37</f>
-        <v>Naghmeh.Hafezi@henryschein.ca</v>
+        <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1638,25 +1641,25 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201807_TOR05_Top15.xlsx</v>
+        <v>201808_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" t="str">
         <f>Sheet1!B38</f>
-        <v>anthony.archer@henryschein.ca</v>
+        <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1665,26 +1668,26 @@
         <v>1</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
+        <f t="shared" ref="G38:G62" si="2">$K38&amp;"\"&amp;L38</f>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201807_TOR02_Top15.xlsx</v>
+        <v>201808_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" t="str">
         <f>Sheet1!B39</f>
-        <v>anthony.archer@henryschein.ca</v>
+        <v>denise.kusinski@zahncanada.ca</v>
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1693,26 +1696,26 @@
         <v>1</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201807_TOR03_Top15.xlsx</v>
+        <v>201808_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" t="str">
         <f>Sheet1!B40</f>
-        <v>anthony.archer@henryschein.ca</v>
+        <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1721,26 +1724,26 @@
         <v>1</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201807_TOR04_Top15.xlsx</v>
+        <v>201808_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" t="str">
         <f>Sheet1!B41</f>
-        <v>anthony.archer@henryschein.ca</v>
+        <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1749,26 +1752,26 @@
         <v>1</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201807_TOR05_Top15.xlsx</v>
+        <v>201808_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" t="str">
         <f>Sheet1!B42</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1777,26 +1780,26 @@
         <v>1</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR02_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201807_TOR02_Top15.xlsx</v>
+        <v>201808_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" t="str">
         <f>Sheet1!B43</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1805,26 +1808,26 @@
         <v>1</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR03_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201807_TOR03_Top15.xlsx</v>
+        <v>201808_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" t="str">
         <f>Sheet1!B44</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1833,26 +1836,26 @@
         <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR04_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201807_TOR04_Top15.xlsx</v>
+        <v>201808_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" t="str">
         <f>Sheet1!B45</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1861,26 +1864,26 @@
         <v>1</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_TOR05_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201807_TOR05_Top15.xlsx</v>
+        <v>201808_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" t="str">
         <f>Sheet1!B46</f>
-        <v>Murray.Johnson@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1889,26 +1892,26 @@
         <v>1</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_EDMON_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201807_EDMON_Top15.xlsx</v>
+        <v>201808_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" t="str">
         <f>Sheet1!B47</f>
-        <v>Larry.Abbott@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1917,26 +1920,26 @@
         <v>1</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_NWFLD_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201807_NWFLD_Top15.xlsx</v>
+        <v>201808_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" t="str">
         <f>Sheet1!B48</f>
-        <v>Jason.Tingley@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1945,26 +1948,26 @@
         <v>1</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_HALFX_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201807_HALFX_Top15.xlsx</v>
+        <v>201808_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" t="str">
         <f>Sheet1!B49</f>
-        <v>mathieu.damour@henryschein.ca</v>
+        <v>Murray.Johnson@henryschein.ca</v>
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1973,26 +1976,26 @@
         <v>1</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_EDMON_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201807_MNTRL_Top15.xlsx</v>
+        <v>201808_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" t="str">
         <f>Sheet1!B50</f>
-        <v>Christian.Marsolais@henryschein.ca</v>
+        <v>Larry.Abbott@henryschein.ca</v>
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2001,26 +2004,26 @@
         <v>1</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201807_MNTRL_Top15.xlsx</v>
+        <v>201808_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" t="str">
         <f>Sheet1!B51</f>
-        <v>Christian.Marsolais@henryschein.ca</v>
+        <v>Jason.Tingley@henryschein.ca</v>
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2029,26 +2032,26 @@
         <v>1</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_QUEBC_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_HALFX_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201807_QUEBC_Top15.xlsx</v>
+        <v>201808_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" t="str">
         <f>Sheet1!B52</f>
-        <v>Yves.Trepanier@henryschein.ca</v>
+        <v>mathieu.damour@henryschein.ca</v>
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2057,26 +2060,26 @@
         <v>1</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_MNTRL_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201807_MNTRL_Top15.xlsx</v>
+        <v>201808_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" t="str">
         <f>Sheet1!B53</f>
-        <v>Yves.Trepanier@henryschein.ca</v>
+        <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2085,26 +2088,26 @@
         <v>1</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_QUEBC_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201807_QUEBC_Top15.xlsx</v>
+        <v>201808_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" t="str">
         <f>Sheet1!B54</f>
-        <v>Kevin.Riley@henryschein.ca</v>
+        <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2113,26 +2116,26 @@
         <v>1</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_REGIN_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201807_REGIN_Top15.xlsx</v>
+        <v>201808_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" t="str">
         <f>Sheet1!B55</f>
-        <v>Kevin.Riley@henryschein.ca</v>
+        <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2141,26 +2144,26 @@
         <v>1</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_WINPG_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201807_WINPG_Top15.xlsx</v>
+        <v>201808_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" t="str">
         <f>Sheet1!B56</f>
-        <v>Greg.Christensen@henryschein.ca</v>
+        <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2169,26 +2172,26 @@
         <v>1</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_CALGY_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201807_CALGY_Top15.xlsx</v>
+        <v>201808_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" t="str">
         <f>Sheet1!B57</f>
-        <v>Danelle.Fulawka@henryschein.ca</v>
+        <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2197,26 +2200,26 @@
         <v>1</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_CALGY_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_REGIN_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201807_CALGY_Top15.xlsx</v>
+        <v>201808_REGIN_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" t="str">
         <f>Sheet1!B58</f>
-        <v>Glenn.Turko@henryschein.ca</v>
+        <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2225,26 +2228,26 @@
         <v>1</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC02_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WINPG_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201807_VIC02_Top15.xlsx</v>
+        <v>201808_WINPG_Top15.xlsx</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" t="str">
         <f>Sheet1!B59</f>
-        <v>Glenn.Turko@henryschein.ca</v>
+        <v>Greg.Christensen@henryschein.ca</v>
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2253,26 +2256,26 @@
         <v>1</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_VIC03_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CALGY_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201807_VIC03_Top15.xlsx</v>
+        <v>201808_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" t="str">
         <f>Sheet1!B60</f>
-        <v>Barbara.Brown@henryschein.ca</v>
+        <v>Glenn.Turko@henryschein.ca</v>
       </c>
       <c r="D60" t="str">
         <f>Sheet1!C60</f>
-        <v>FSC Top 15 Summary for July 2018</v>
+        <v>FSC Top 15 Summary for August 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2281,16 +2284,81 @@
         <v>1</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201807_Zahn_Top15.xlsx</v>
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC02_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="L60" t="str">
         <f>Sheet1!E60</f>
-        <v>201807_Zahn_Top15.xlsx</v>
-      </c>
+        <v>201808_VIC02_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" t="str">
+        <f>Sheet1!B61</f>
+        <v>Glenn.Turko@henryschein.ca</v>
+      </c>
+      <c r="D61" t="str">
+        <f>Sheet1!C61</f>
+        <v>FSC Top 15 Summary for August 2018</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC03_Top15.xlsx</v>
+      </c>
+      <c r="K61" t="s">
+        <v>45</v>
+      </c>
+      <c r="L61" t="str">
+        <f>Sheet1!E61</f>
+        <v>201808_VIC03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" t="str">
+        <f>Sheet1!B62</f>
+        <v>Barbara.Brown@henryschein.ca</v>
+      </c>
+      <c r="D62" t="str">
+        <f>Sheet1!C62</f>
+        <v>FSC Top 15 Summary for August 2018</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
+      </c>
+      <c r="K62" t="s">
+        <v>45</v>
+      </c>
+      <c r="L62" t="str">
+        <f>Sheet1!E62</f>
+        <v>201808_Zahn_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2330,29 +2398,31 @@
     <hyperlink ref="B35" r:id="rId34" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{8AE4B9C8-6F06-45ED-B2EB-6175BAD36FD8}"/>
     <hyperlink ref="B36" r:id="rId35" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{D6464C2F-AA93-4D6B-A116-56F165B1142B}"/>
     <hyperlink ref="B37" r:id="rId36" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{B2AFF943-3CA6-4346-9212-4B6256FBB23D}"/>
-    <hyperlink ref="B38" r:id="rId37" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{A4A4B373-E65B-4351-A53D-76A0A8768271}"/>
-    <hyperlink ref="B39" r:id="rId38" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{2D54B402-0E74-4C7E-AC4B-EEB6A6119B81}"/>
-    <hyperlink ref="B40" r:id="rId39" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{DB5D3CC8-FEE1-4FD6-B82C-2B064BF9E6B8}"/>
-    <hyperlink ref="B41" r:id="rId40" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{ACE027B4-307B-46A6-BD01-D0BCFD4C5961}"/>
-    <hyperlink ref="B42" r:id="rId41" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{6386FE3C-352C-4526-A31F-4C6B48A2F228}"/>
-    <hyperlink ref="B43" r:id="rId42" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{72D6689E-E913-4E75-8DDB-45158B8A1DAF}"/>
-    <hyperlink ref="B44" r:id="rId43" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{79ACE19D-F44C-4DC1-847C-3FA45C5E64F6}"/>
-    <hyperlink ref="B45" r:id="rId44" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{E2D0CDD5-1493-4264-932A-B347282F0D95}"/>
-    <hyperlink ref="B46" r:id="rId45" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{414963FA-95B8-412A-86D3-AE82C38221E9}"/>
-    <hyperlink ref="B47" r:id="rId46" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{FBD67513-D0EA-48D0-8859-8C15C309CDDF}"/>
-    <hyperlink ref="B48" r:id="rId47" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{A1A288C2-F6DA-4840-BB4A-1AC44FA5FB37}"/>
-    <hyperlink ref="B49" r:id="rId48" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{81C874E4-7B42-4D2C-9153-D57CD7ACBDD3}"/>
-    <hyperlink ref="B50" r:id="rId49" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{FF2FD53E-2226-422F-9F57-A03EABE8F7A9}"/>
-    <hyperlink ref="B51" r:id="rId50" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{C43903DB-9F0E-4F11-A29A-3C60C1BC6933}"/>
-    <hyperlink ref="B52" r:id="rId51" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{EB4BCDFC-ECD9-47DD-8894-66023464593B}"/>
-    <hyperlink ref="B53" r:id="rId52" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{37438085-07BB-4F6B-B86A-B343D36F139D}"/>
-    <hyperlink ref="B54" r:id="rId53" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{48620DA6-122D-42B1-8CE5-90B906348CDC}"/>
-    <hyperlink ref="B55" r:id="rId54" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{23139750-F5B7-44D0-867C-01E0B43F36EB}"/>
-    <hyperlink ref="B56" r:id="rId55" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{2760D0A8-9901-493F-82DC-1124A9E8FFA9}"/>
-    <hyperlink ref="B57" r:id="rId56" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{025779F2-5C6C-47CD-B1E9-E502F708C3B1}"/>
-    <hyperlink ref="B58" r:id="rId57" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{5583E52E-EE90-4045-A897-37F3BFFC5F7B}"/>
-    <hyperlink ref="B59" r:id="rId58" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{E963D349-3269-4161-876A-CC77362E2D93}"/>
-    <hyperlink ref="B60" r:id="rId59" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{CB2EF48D-4172-45F7-9F64-3FA1BFBE964D}"/>
+    <hyperlink ref="B38" r:id="rId37" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{BAE1AF18-8E7E-43C5-8708-614C3CE413C7}"/>
+    <hyperlink ref="B39" r:id="rId38" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{FF07F1B4-0C1B-4330-B3A0-7F0F32B4A360}"/>
+    <hyperlink ref="B40" r:id="rId39" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{0D16D77B-1299-4D2C-89BD-5189C677673A}"/>
+    <hyperlink ref="B41" r:id="rId40" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{58BD1339-0DAC-4348-A9AF-FFCE6F470D5B}"/>
+    <hyperlink ref="B42" r:id="rId41" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{6998DCFF-43FC-47B9-9634-9828E93EEAA8}"/>
+    <hyperlink ref="B43" r:id="rId42" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{71EEE897-35A3-4B9A-8B74-ABC5DB7464EF}"/>
+    <hyperlink ref="B44" r:id="rId43" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{998A0421-94E2-491D-8B61-222050D01085}"/>
+    <hyperlink ref="B45" r:id="rId44" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{1AAE8209-C609-4407-B6DF-738A089A84EA}"/>
+    <hyperlink ref="B46" r:id="rId45" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{4C87CB59-0A90-4170-9D9C-F1EE1F750C80}"/>
+    <hyperlink ref="B47" r:id="rId46" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{0575395A-FCB0-4AA5-9174-0EE1AF92BCE0}"/>
+    <hyperlink ref="B48" r:id="rId47" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{63EC5725-4C4C-44F7-84CD-1642ED86E75D}"/>
+    <hyperlink ref="B49" r:id="rId48" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{57962517-BFBE-4A46-80A1-1874D34B55DB}"/>
+    <hyperlink ref="B50" r:id="rId49" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{FDEAF721-494C-42BD-960B-20668B60AD73}"/>
+    <hyperlink ref="B51" r:id="rId50" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{33AD0F95-6085-4143-A75A-05355F4172FF}"/>
+    <hyperlink ref="B52" r:id="rId51" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{73536CDD-F55D-49A5-9F90-15F405C21DA0}"/>
+    <hyperlink ref="B53" r:id="rId52" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{AEC8CEA2-2E69-47F9-8EF7-B40991A588D4}"/>
+    <hyperlink ref="B54" r:id="rId53" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{3718C688-9246-4D69-A26E-03B36CEC3410}"/>
+    <hyperlink ref="B55" r:id="rId54" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{4FEE9EAD-D6B8-4084-8A94-0B18943B2A66}"/>
+    <hyperlink ref="B56" r:id="rId55" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{A290504C-479A-4378-8DF9-FAF980A5F146}"/>
+    <hyperlink ref="B57" r:id="rId56" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{F9E886CF-00CF-4939-84F3-87780D92C7CF}"/>
+    <hyperlink ref="B58" r:id="rId57" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{A6F63C36-90C1-4642-A778-7C25F0737A8A}"/>
+    <hyperlink ref="B59" r:id="rId58" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{A93937C4-5D2E-4144-BFB3-349EEC07B4BD}"/>
+    <hyperlink ref="B60" r:id="rId59" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{258D4652-D987-453E-AC1C-68474FBAA6D9}"/>
+    <hyperlink ref="B61" r:id="rId60" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{EA4BA796-C4EC-4EBB-90E0-81266E3B6213}"/>
+    <hyperlink ref="B62" r:id="rId61" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{54BFD9D6-5B27-44DF-8F04-6ABF2E223C56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2360,10 +2430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2759,7 +2829,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2778,14 +2848,17 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
+      <c r="C2" t="str">
+        <f>C3</f>
+        <v>FSC Top 15 Summary for August 2018</v>
+      </c>
+      <c r="E2" t="str">
+        <f>E3</f>
+        <v>201808_HALFX_Top15.xlsx</v>
+      </c>
+      <c r="F2" t="str">
+        <f>F3</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2799,7 +2872,7 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2813,12 +2886,12 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
@@ -2827,7 +2900,7 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2841,26 +2914,26 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>46</v>
@@ -2869,21 +2942,21 @@
         <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2897,7 +2970,7 @@
         <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,12 +2984,12 @@
         <v>55</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
@@ -2925,180 +2998,180 @@
         <v>56</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
         <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>46</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
         <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -3107,12 +3180,12 @@
         <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
         <v>46</v>
@@ -3121,12 +3194,12 @@
         <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
         <v>46</v>
@@ -3135,12 +3208,12 @@
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>46</v>
@@ -3149,110 +3222,110 @@
         <v>64</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>46</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
         <v>46</v>
@@ -3261,12 +3334,12 @@
         <v>54</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
@@ -3275,40 +3348,40 @@
         <v>55</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
         <v>46</v>
@@ -3317,12 +3390,12 @@
         <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>46</v>
@@ -3331,219 +3404,219 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C47" t="s">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C49" t="s">
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C54" t="s">
         <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -3552,49 +3625,77 @@
         <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
       </c>
       <c r="E60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" t="s">
         <v>50</v>
       </c>
-      <c r="F60" t="s">
-        <v>43</v>
+      <c r="F62" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J050_TOP15_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A9B537D-501E-4951-B51F-929CDFBD8155}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7042205-12B6-4159-938E-CBB7F242BBA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="70">
   <si>
     <t>msg</t>
   </si>
@@ -161,76 +161,76 @@
     <t>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for August 2018</t>
-  </si>
-  <si>
-    <t>201808_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
     <t>jeff.vandamme@zahncanada.ca</t>
   </si>
   <si>
-    <t>201808_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
     <t>Chris.Nicolson@henryschein.ca</t>
   </si>
   <si>
-    <t>201808_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CALGY_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for September 2018</t>
+  </si>
+  <si>
+    <t>201809_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CALGY_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -580,11 +580,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,7 +649,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -661,14 +659,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201808_HALFX_Top15.xlsx</v>
+        <v>201809_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -679,7 +677,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -689,14 +687,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>45</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201808_HALFX_Top15.xlsx</v>
+        <v>201809_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -707,7 +705,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -716,15 +714,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G60" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_NWFLD_Top15.xlsx</v>
+        <f t="shared" ref="G4:G37" si="1">$K4&amp;"\"&amp;L4</f>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201808_NWFLD_Top15.xlsx</v>
+        <v>201809_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -735,7 +733,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -745,14 +743,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201808_QUEBC_Top15.xlsx</v>
+        <v>201809_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -763,7 +761,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -773,14 +771,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201808_Zahn_Top15.xlsx</v>
+        <v>201809_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -791,7 +789,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -801,14 +799,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>45</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201808_Zahn_Top15.xlsx</v>
+        <v>201809_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -819,7 +817,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -829,14 +827,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_OTTWA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>45</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201808_OTTWA_Top15.xlsx</v>
+        <v>201809_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -847,7 +845,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -857,14 +855,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_OTTWA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>45</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201808_OTTWA_Top15.xlsx</v>
+        <v>201809_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -875,7 +873,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -885,14 +883,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>45</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201808_TOR02_Top15.xlsx</v>
+        <v>201809_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -903,7 +901,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -913,14 +911,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>45</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201808_TOR03_Top15.xlsx</v>
+        <v>201809_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -931,7 +929,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -941,14 +939,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>45</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201808_TOR04_Top15.xlsx</v>
+        <v>201809_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -959,7 +957,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -969,14 +967,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>45</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201808_TOR05_Top15.xlsx</v>
+        <v>201809_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -987,7 +985,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -997,14 +995,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201808_TOR02_Top15.xlsx</v>
+        <v>201809_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1015,7 +1013,7 @@
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1025,14 +1023,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>45</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201808_TOR03_Top15.xlsx</v>
+        <v>201809_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1043,7 +1041,7 @@
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1053,14 +1051,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>45</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201808_TOR04_Top15.xlsx</v>
+        <v>201809_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1071,7 +1069,7 @@
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1081,14 +1079,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>45</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201808_TOR05_Top15.xlsx</v>
+        <v>201809_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1099,7 +1097,7 @@
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1109,14 +1107,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>45</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201808_MNTRL_Top15.xlsx</v>
+        <v>201809_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,7 +1125,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1137,14 +1135,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>45</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201808_Zahn_Top15.xlsx</v>
+        <v>201809_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1155,7 +1153,7 @@
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1165,14 +1163,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_LONDN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_LONDN_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>45</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201808_LONDN_Top15.xlsx</v>
+        <v>201809_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1183,7 +1181,7 @@
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1193,14 +1191,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_LONDN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_LONDN_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>45</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201808_LONDN_Top15.xlsx</v>
+        <v>201809_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1211,7 +1209,7 @@
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1221,14 +1219,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>45</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201808_Zahn_Top15.xlsx</v>
+        <v>201809_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1239,7 +1237,7 @@
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1249,14 +1247,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MEDIC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>45</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201808_MEDIC_Top15.xlsx</v>
+        <v>201809_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1267,7 +1265,7 @@
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1277,14 +1275,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_EDMON_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>45</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201808_EDMON_Top15.xlsx</v>
+        <v>201809_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1295,7 +1293,7 @@
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1305,14 +1303,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_EDMON_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>45</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201808_EDMON_Top15.xlsx</v>
+        <v>201809_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1323,7 +1321,7 @@
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1333,14 +1331,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC01_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC01_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>45</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201808_VAC01_Top15.xlsx</v>
+        <v>201809_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1351,7 +1349,7 @@
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1361,14 +1359,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>45</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201808_VAC02_Top15.xlsx</v>
+        <v>201809_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1379,7 +1377,7 @@
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1389,14 +1387,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201808_VAC03_Top15.xlsx</v>
+        <v>201809_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1407,7 +1405,7 @@
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1417,14 +1415,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201808_VIC02_Top15.xlsx</v>
+        <v>201809_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1435,7 +1433,7 @@
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1445,14 +1443,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201808_VIC03_Top15.xlsx</v>
+        <v>201809_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1463,7 +1461,7 @@
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1473,14 +1471,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC01_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC01_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>45</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201808_VAC01_Top15.xlsx</v>
+        <v>201809_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1491,7 +1489,7 @@
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1501,14 +1499,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC02_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>45</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201808_VAC02_Top15.xlsx</v>
+        <v>201809_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1519,7 +1517,7 @@
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1529,14 +1527,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VAC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC03_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>45</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201808_VAC03_Top15.xlsx</v>
+        <v>201809_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1547,7 +1545,7 @@
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1557,14 +1555,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>45</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201808_VIC02_Top15.xlsx</v>
+        <v>201809_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1575,7 +1573,7 @@
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1585,14 +1583,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>45</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201808_VIC03_Top15.xlsx</v>
+        <v>201809_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1603,7 +1601,7 @@
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1613,14 +1611,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>45</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201808_TOR02_Top15.xlsx</v>
+        <v>201809_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1631,7 +1629,7 @@
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1641,14 +1639,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>45</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201808_TOR03_Top15.xlsx</v>
+        <v>201809_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1659,7 +1657,7 @@
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1669,25 +1667,25 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" ref="G38:G62" si="2">$K38&amp;"\"&amp;L38</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>45</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201808_TOR05_Top15.xlsx</v>
+        <v>201809_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" t="str">
         <f>Sheet1!B39</f>
-        <v>denise.kusinski@zahncanada.ca</v>
+        <v>Jason.Schuler@henryschein.ca</v>
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1697,25 +1695,25 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>45</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201808_Zahn_Top15.xlsx</v>
+        <v>201809_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" t="str">
         <f>Sheet1!B40</f>
-        <v>Naghmeh.Hafezi@henryschein.ca</v>
+        <v>denise.kusinski@zahncanada.ca</v>
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1725,14 +1723,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>45</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201808_TOR02_Top15.xlsx</v>
+        <v>201809_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1743,7 +1741,7 @@
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1753,14 +1751,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>45</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201808_TOR03_Top15.xlsx</v>
+        <v>201809_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1771,7 +1769,7 @@
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1781,25 +1779,25 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>45</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201808_TOR05_Top15.xlsx</v>
+        <v>201809_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" t="str">
         <f>Sheet1!B43</f>
-        <v>anthony.archer@henryschein.ca</v>
+        <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1809,25 +1807,25 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>45</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201808_TOR02_Top15.xlsx</v>
+        <v>201809_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" t="str">
         <f>Sheet1!B44</f>
-        <v>anthony.archer@henryschein.ca</v>
+        <v>Naghmeh.Hafezi@henryschein.ca</v>
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1837,14 +1835,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>45</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201808_TOR03_Top15.xlsx</v>
+        <v>201809_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1855,7 +1853,7 @@
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1865,25 +1863,25 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>45</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201808_TOR05_Top15.xlsx</v>
+        <v>201809_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" t="str">
         <f>Sheet1!B46</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1893,25 +1891,25 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>45</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201808_TOR02_Top15.xlsx</v>
+        <v>201809_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" t="str">
         <f>Sheet1!B47</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1921,25 +1919,25 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>45</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201808_TOR03_Top15.xlsx</v>
+        <v>201809_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" t="str">
         <f>Sheet1!B48</f>
-        <v>Cherry.Chen-Egan@henryschein.ca</v>
+        <v>anthony.archer@henryschein.ca</v>
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1949,25 +1947,25 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>45</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201808_TOR05_Top15.xlsx</v>
+        <v>201809_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" t="str">
         <f>Sheet1!B49</f>
-        <v>Murray.Johnson@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1977,25 +1975,25 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>45</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201808_EDMON_Top15.xlsx</v>
+        <v>201809_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" t="str">
         <f>Sheet1!B50</f>
-        <v>Larry.Abbott@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2005,25 +2003,25 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_NWFLD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201808_NWFLD_Top15.xlsx</v>
+        <v>201809_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" t="str">
         <f>Sheet1!B51</f>
-        <v>Jason.Tingley@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2033,25 +2031,25 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>45</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201808_HALFX_Top15.xlsx</v>
+        <v>201809_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" t="str">
         <f>Sheet1!B52</f>
-        <v>mathieu.damour@henryschein.ca</v>
+        <v>Cherry.Chen-Egan@henryschein.ca</v>
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2061,25 +2059,25 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>45</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201808_MNTRL_Top15.xlsx</v>
+        <v>201809_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" t="str">
         <f>Sheet1!B53</f>
-        <v>Christian.Marsolais@henryschein.ca</v>
+        <v>Murray.Johnson@henryschein.ca</v>
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2089,25 +2087,25 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_EDMON_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>45</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201808_MNTRL_Top15.xlsx</v>
+        <v>201809_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" t="str">
         <f>Sheet1!B54</f>
-        <v>Christian.Marsolais@henryschein.ca</v>
+        <v>Larry.Abbott@henryschein.ca</v>
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2117,25 +2115,25 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>45</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201808_QUEBC_Top15.xlsx</v>
+        <v>201809_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" t="str">
         <f>Sheet1!B55</f>
-        <v>Yves.Trepanier@henryschein.ca</v>
+        <v>Jason.Tingley@henryschein.ca</v>
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2145,25 +2143,25 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_HALFX_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>45</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201808_MNTRL_Top15.xlsx</v>
+        <v>201809_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" t="str">
         <f>Sheet1!B56</f>
-        <v>Yves.Trepanier@henryschein.ca</v>
+        <v>mathieu.damour@henryschein.ca</v>
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2173,25 +2171,25 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>45</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201808_QUEBC_Top15.xlsx</v>
+        <v>201809_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" t="str">
         <f>Sheet1!B57</f>
-        <v>Kevin.Riley@henryschein.ca</v>
+        <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2201,25 +2199,25 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_REGIN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>45</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201808_REGIN_Top15.xlsx</v>
+        <v>201809_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" t="str">
         <f>Sheet1!B58</f>
-        <v>Kevin.Riley@henryschein.ca</v>
+        <v>Christian.Marsolais@henryschein.ca</v>
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2229,25 +2227,25 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WINPG_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>45</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201808_WINPG_Top15.xlsx</v>
+        <v>201809_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" t="str">
         <f>Sheet1!B59</f>
-        <v>Greg.Christensen@henryschein.ca</v>
+        <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2257,25 +2255,25 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CALGY_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>45</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201808_CALGY_Top15.xlsx</v>
+        <v>201809_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" t="str">
         <f>Sheet1!B60</f>
-        <v>Glenn.Turko@henryschein.ca</v>
+        <v>Yves.Trepanier@henryschein.ca</v>
       </c>
       <c r="D60" t="str">
         <f>Sheet1!C60</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2285,25 +2283,25 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>45</v>
       </c>
       <c r="L60" t="str">
         <f>Sheet1!E60</f>
-        <v>201808_VIC02_Top15.xlsx</v>
+        <v>201809_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" t="str">
         <f>Sheet1!B61</f>
-        <v>Glenn.Turko@henryschein.ca</v>
+        <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D61" t="str">
         <f>Sheet1!C61</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2313,25 +2311,25 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_REGIN_Top15.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>45</v>
       </c>
       <c r="L61" t="str">
         <f>Sheet1!E61</f>
-        <v>201808_VIC03_Top15.xlsx</v>
+        <v>201809_REGIN_Top15.xlsx</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" t="str">
         <f>Sheet1!B62</f>
-        <v>Barbara.Brown@henryschein.ca</v>
+        <v>Kevin.Riley@henryschein.ca</v>
       </c>
       <c r="D62" t="str">
         <f>Sheet1!C62</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2341,24 +2339,127 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WINPG_Top15.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>45</v>
       </c>
       <c r="L62" t="str">
         <f>Sheet1!E62</f>
-        <v>201808_Zahn_Top15.xlsx</v>
+        <v>201809_WINPG_Top15.xlsx</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
+      <c r="B63" t="str">
+        <f>Sheet1!B63</f>
+        <v>Greg.Christensen@henryschein.ca</v>
+      </c>
+      <c r="D63" t="str">
+        <f>Sheet1!C63</f>
+        <v>FSC Top 15 Summary for September 2018</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" ref="G63:G66" si="3">$K63&amp;"\"&amp;L63</f>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CALGY_Top15.xlsx</v>
+      </c>
+      <c r="K63" t="s">
+        <v>45</v>
+      </c>
+      <c r="L63" t="str">
+        <f>Sheet1!E63</f>
+        <v>201809_CALGY_Top15.xlsx</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="str">
+        <f>Sheet1!B64</f>
+        <v>Glenn.Turko@henryschein.ca</v>
+      </c>
+      <c r="D64" t="str">
+        <f>Sheet1!C64</f>
+        <v>FSC Top 15 Summary for September 2018</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="3"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC02_Top15.xlsx</v>
+      </c>
+      <c r="K64" t="s">
+        <v>45</v>
+      </c>
+      <c r="L64" t="str">
+        <f>Sheet1!E64</f>
+        <v>201809_VIC02_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
+      <c r="B65" t="str">
+        <f>Sheet1!B65</f>
+        <v>Glenn.Turko@henryschein.ca</v>
+      </c>
+      <c r="D65" t="str">
+        <f>Sheet1!C65</f>
+        <v>FSC Top 15 Summary for September 2018</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="3"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC03_Top15.xlsx</v>
+      </c>
+      <c r="K65" t="s">
+        <v>45</v>
+      </c>
+      <c r="L65" t="str">
+        <f>Sheet1!E65</f>
+        <v>201809_VIC03_Top15.xlsx</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" t="str">
+        <f>Sheet1!B66</f>
+        <v>Barbara.Brown@henryschein.ca</v>
+      </c>
+      <c r="D66" t="str">
+        <f>Sheet1!C66</f>
+        <v>FSC Top 15 Summary for September 2018</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="3"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
+      </c>
+      <c r="K66" t="s">
+        <v>45</v>
+      </c>
+      <c r="L66" t="str">
+        <f>Sheet1!E66</f>
+        <v>201809_Zahn_Top15.xlsx</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2423,6 +2524,10 @@
     <hyperlink ref="B60" r:id="rId59" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{258D4652-D987-453E-AC1C-68474FBAA6D9}"/>
     <hyperlink ref="B61" r:id="rId60" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{EA4BA796-C4EC-4EBB-90E0-81266E3B6213}"/>
     <hyperlink ref="B62" r:id="rId61" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{54BFD9D6-5B27-44DF-8F04-6ABF2E223C56}"/>
+    <hyperlink ref="B63" r:id="rId62" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{49F8DD5F-75CB-4451-88A2-4ED77B622A1D}"/>
+    <hyperlink ref="B64" r:id="rId63" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{052E76F6-29EF-4B85-9B57-9598E8B0A2BF}"/>
+    <hyperlink ref="B65" r:id="rId64" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{2B222839-7F65-4541-B6DA-B46FA1639354}"/>
+    <hyperlink ref="B66" r:id="rId65" display="BusinessReporting.Canada@henryschein.ca" xr:uid="{51D6C9E2-3D5C-442C-B103-83B726862D3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2430,10 +2535,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F62"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,11 +2956,11 @@
       </c>
       <c r="C2" t="str">
         <f>C3</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E2" t="str">
         <f>E3</f>
-        <v>201808_HALFX_Top15.xlsx</v>
+        <v>201809_HALFX_Top15.xlsx</v>
       </c>
       <c r="F2" t="str">
         <f>F3</f>
@@ -2866,10 +2972,10 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -2880,10 +2986,10 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -2894,10 +3000,10 @@
         <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -2908,10 +3014,10 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
@@ -2919,13 +3025,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
@@ -2936,10 +3042,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>42</v>
@@ -2947,13 +3053,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" t="s">
-        <v>52</v>
       </c>
       <c r="F9" t="s">
         <v>42</v>
@@ -2964,7 +3070,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
         <v>54</v>
@@ -2978,7 +3084,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>55</v>
@@ -2992,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -3006,7 +3112,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>57</v>
@@ -3017,10 +3123,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
         <v>54</v>
@@ -3031,10 +3137,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>55</v>
@@ -3045,10 +3151,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>56</v>
@@ -3059,10 +3165,10 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
@@ -3076,7 +3182,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>58</v>
@@ -3090,10 +3196,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
         <v>42</v>
@@ -3104,7 +3210,7 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
@@ -3115,10 +3221,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>59</v>
@@ -3132,10 +3238,10 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -3146,7 +3252,7 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>60</v>
@@ -3160,7 +3266,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -3174,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -3188,7 +3294,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>62</v>
@@ -3202,7 +3308,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E27" t="s">
         <v>63</v>
@@ -3216,7 +3322,7 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>64</v>
@@ -3230,7 +3336,7 @@
         <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
         <v>65</v>
@@ -3244,7 +3350,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
         <v>66</v>
@@ -3258,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31" t="s">
         <v>62</v>
@@ -3272,7 +3378,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>63</v>
@@ -3286,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
         <v>64</v>
@@ -3300,7 +3406,7 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34" t="s">
         <v>65</v>
@@ -3314,7 +3420,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>66</v>
@@ -3328,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
         <v>54</v>
@@ -3342,7 +3448,7 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E37" t="s">
         <v>55</v>
@@ -3356,10 +3462,10 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
@@ -3367,13 +3473,13 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
         <v>42</v>
@@ -3381,13 +3487,13 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F40" t="s">
         <v>42</v>
@@ -3398,10 +3504,10 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
         <v>42</v>
@@ -3412,10 +3518,10 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
         <v>42</v>
@@ -3423,13 +3529,13 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
         <v>42</v>
@@ -3437,13 +3543,13 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F44" t="s">
         <v>42</v>
@@ -3454,10 +3560,10 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s">
         <v>42</v>
@@ -3465,13 +3571,13 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46" t="s">
         <v>42</v>
@@ -3479,13 +3585,13 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
         <v>42</v>
@@ -3493,10 +3599,10 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
         <v>57</v>
@@ -3507,13 +3613,13 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s">
         <v>42</v>
@@ -3521,24 +3627,27 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F51" t="s">
         <v>42</v>
@@ -3546,13 +3655,13 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52" t="s">
         <v>42</v>
@@ -3560,13 +3669,13 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
         <v>42</v>
@@ -3574,27 +3683,24 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>49</v>
-      </c>
-      <c r="F54" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s">
         <v>42</v>
@@ -3602,13 +3708,13 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F56" t="s">
         <v>42</v>
@@ -3616,13 +3722,13 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F57" t="s">
         <v>42</v>
@@ -3630,13 +3736,13 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F58" t="s">
         <v>42</v>
@@ -3644,13 +3750,13 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F59" t="s">
         <v>42</v>
@@ -3658,13 +3764,13 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F60" t="s">
         <v>42</v>
@@ -3672,13 +3778,13 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
         <v>42</v>
@@ -3686,15 +3792,71 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E62" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="E63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="E64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>35</v>
       </c>
-      <c r="C62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" t="s">
         <v>42</v>
       </c>
     </row>

--- a/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
+++ b/BR_Mailer/J050_TOP15_FSC_BR/J050_Mailing List - excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J050_TOP15_FSC_BR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7042205-12B6-4159-938E-CBB7F242BBA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEAEAB3E-3914-4DC0-851D-702B6FDF23BD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,70 +167,70 @@
     <t>Chris.Nicolson@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for September 2018</t>
-  </si>
-  <si>
-    <t>201809_HALFX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_NWFLD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_QUEBC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_Zahn_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_OTTWA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_TOR02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_TOR03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_TOR04_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_TOR05_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_MNTRL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_LONDN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_MEDIC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_EDMON_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_VAC01_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_VAC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_VAC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_VIC02_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_VIC03_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_REGIN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_WINPG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201809_CALGY_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for October 2018</t>
+  </si>
+  <si>
+    <t>201810_HALFX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_NWFLD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_QUEBC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_Zahn_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_OTTWA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_TOR02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_TOR03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_TOR04_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_TOR05_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_MNTRL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_LONDN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_MEDIC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_EDMON_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_VAC01_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_VAC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_VAC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_VIC02_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_VIC03_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_REGIN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_WINPG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201810_CALGY_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -659,14 +659,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_HALFX_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>45</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201809_HALFX_Top15.xlsx</v>
+        <v>201810_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -677,7 +677,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -687,14 +687,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_HALFX_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>45</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201809_HALFX_Top15.xlsx</v>
+        <v>201810_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -715,14 +715,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G37" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_NWFLD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>45</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201809_NWFLD_Top15.xlsx</v>
+        <v>201810_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -743,14 +743,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>45</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201809_QUEBC_Top15.xlsx</v>
+        <v>201810_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -771,14 +771,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_Zahn_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>45</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201809_Zahn_Top15.xlsx</v>
+        <v>201810_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -789,7 +789,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -799,14 +799,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_Zahn_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>45</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201809_Zahn_Top15.xlsx</v>
+        <v>201810_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -827,14 +827,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_OTTWA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>45</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201809_OTTWA_Top15.xlsx</v>
+        <v>201810_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -855,14 +855,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_OTTWA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_OTTWA_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>45</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201809_OTTWA_Top15.xlsx</v>
+        <v>201810_OTTWA_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -873,7 +873,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -883,14 +883,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR02_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>45</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201809_TOR02_Top15.xlsx</v>
+        <v>201810_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -911,14 +911,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR03_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>45</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201809_TOR03_Top15.xlsx</v>
+        <v>201810_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -929,7 +929,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -939,14 +939,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR04_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>45</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201809_TOR04_Top15.xlsx</v>
+        <v>201810_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -957,7 +957,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -967,14 +967,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR05_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>45</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201809_TOR05_Top15.xlsx</v>
+        <v>201810_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -985,7 +985,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -995,14 +995,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR02_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>45</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201809_TOR02_Top15.xlsx</v>
+        <v>201810_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1023,14 +1023,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR03_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>45</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201809_TOR03_Top15.xlsx</v>
+        <v>201810_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1051,14 +1051,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR04_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>45</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201809_TOR04_Top15.xlsx</v>
+        <v>201810_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1079,14 +1079,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR05_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>45</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201809_TOR05_Top15.xlsx</v>
+        <v>201810_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1107,14 +1107,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>45</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201809_MNTRL_Top15.xlsx</v>
+        <v>201810_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1135,14 +1135,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_Zahn_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>45</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201809_Zahn_Top15.xlsx</v>
+        <v>201810_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1163,14 +1163,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_LONDN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_LONDN_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>45</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201809_LONDN_Top15.xlsx</v>
+        <v>201810_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1191,14 +1191,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_LONDN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_LONDN_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>45</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201809_LONDN_Top15.xlsx</v>
+        <v>201810_LONDN_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1219,14 +1219,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_Zahn_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>45</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201809_Zahn_Top15.xlsx</v>
+        <v>201810_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1247,14 +1247,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MEDIC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_MEDIC_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>45</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201809_MEDIC_Top15.xlsx</v>
+        <v>201810_MEDIC_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1275,14 +1275,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_EDMON_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>45</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201809_EDMON_Top15.xlsx</v>
+        <v>201810_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1303,14 +1303,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_EDMON_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>45</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201809_EDMON_Top15.xlsx</v>
+        <v>201810_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1331,14 +1331,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC01_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VAC01_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>45</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201809_VAC01_Top15.xlsx</v>
+        <v>201810_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1359,14 +1359,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VAC02_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>45</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201809_VAC02_Top15.xlsx</v>
+        <v>201810_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1387,14 +1387,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VAC03_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201809_VAC03_Top15.xlsx</v>
+        <v>201810_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1415,14 +1415,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VIC02_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201809_VIC02_Top15.xlsx</v>
+        <v>201810_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1443,14 +1443,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VIC03_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>45</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201809_VIC03_Top15.xlsx</v>
+        <v>201810_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1471,14 +1471,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC01_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VAC01_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>45</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201809_VAC01_Top15.xlsx</v>
+        <v>201810_VAC01_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1499,14 +1499,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VAC02_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>45</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201809_VAC02_Top15.xlsx</v>
+        <v>201810_VAC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1527,14 +1527,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VAC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VAC03_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>45</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201809_VAC03_Top15.xlsx</v>
+        <v>201810_VAC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VIC02_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>45</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201809_VIC02_Top15.xlsx</v>
+        <v>201810_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1583,14 +1583,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VIC03_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>45</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201809_VIC03_Top15.xlsx</v>
+        <v>201810_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1611,14 +1611,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR02_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>45</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201809_TOR02_Top15.xlsx</v>
+        <v>201810_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1639,14 +1639,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR03_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>45</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201809_TOR03_Top15.xlsx</v>
+        <v>201810_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1667,14 +1667,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" ref="G38:G62" si="2">$K38&amp;"\"&amp;L38</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR04_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>45</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201809_TOR04_Top15.xlsx</v>
+        <v>201810_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1695,14 +1695,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR05_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>45</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201809_TOR05_Top15.xlsx</v>
+        <v>201810_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1723,14 +1723,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_Zahn_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>45</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201809_Zahn_Top15.xlsx</v>
+        <v>201810_Zahn_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1751,14 +1751,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR02_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>45</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201809_TOR02_Top15.xlsx</v>
+        <v>201810_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1779,14 +1779,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR03_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>45</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201809_TOR03_Top15.xlsx</v>
+        <v>201810_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1807,14 +1807,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR04_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>45</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201809_TOR04_Top15.xlsx</v>
+        <v>201810_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1835,14 +1835,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR05_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>45</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201809_TOR05_Top15.xlsx</v>
+        <v>201810_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1863,14 +1863,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR02_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>45</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201809_TOR02_Top15.xlsx</v>
+        <v>201810_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1891,14 +1891,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR03_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>45</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201809_TOR03_Top15.xlsx</v>
+        <v>201810_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR04_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>45</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201809_TOR04_Top15.xlsx</v>
+        <v>201810_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1947,14 +1947,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR05_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>45</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201809_TOR05_Top15.xlsx</v>
+        <v>201810_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -1975,14 +1975,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR02_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>45</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201809_TOR02_Top15.xlsx</v>
+        <v>201810_TOR02_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2003,14 +2003,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR03_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>45</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201809_TOR03_Top15.xlsx</v>
+        <v>201810_TOR03_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2031,14 +2031,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR04_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR04_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>45</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201809_TOR04_Top15.xlsx</v>
+        <v>201810_TOR04_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2059,14 +2059,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_TOR05_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_TOR05_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>45</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201809_TOR05_Top15.xlsx</v>
+        <v>201810_TOR05_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2087,14 +2087,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_EDMON_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_EDMON_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>45</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201809_EDMON_Top15.xlsx</v>
+        <v>201810_EDMON_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2115,14 +2115,14 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_NWFLD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_NWFLD_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>45</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201809_NWFLD_Top15.xlsx</v>
+        <v>201810_NWFLD_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2143,14 +2143,14 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_HALFX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_HALFX_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>45</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201809_HALFX_Top15.xlsx</v>
+        <v>201810_HALFX_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2171,14 +2171,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>45</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201809_MNTRL_Top15.xlsx</v>
+        <v>201810_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2199,14 +2199,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>45</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201809_MNTRL_Top15.xlsx</v>
+        <v>201810_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2227,14 +2227,14 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>45</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201809_QUEBC_Top15.xlsx</v>
+        <v>201810_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2245,7 +2245,7 @@
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2255,14 +2255,14 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_MNTRL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_MNTRL_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>45</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201809_MNTRL_Top15.xlsx</v>
+        <v>201810_MNTRL_Top15.xlsx</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="D60" t="str">
         <f>Sheet1!C60</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QUEBC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_QUEBC_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>45</v>
       </c>
       <c r="L60" t="str">
         <f>Sheet1!E60</f>
-        <v>201809_QUEBC_Top15.xlsx</v>
+        <v>201810_QUEBC_Top15.xlsx</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="D61" t="str">
         <f>Sheet1!C61</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2311,14 +2311,14 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_REGIN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_REGIN_Top15.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>45</v>
       </c>
       <c r="L61" t="str">
         <f>Sheet1!E61</f>
-        <v>201809_REGIN_Top15.xlsx</v>
+        <v>201810_REGIN_Top15.xlsx</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D62" t="str">
         <f>Sheet1!C62</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2339,14 +2339,14 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WINPG_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_WINPG_Top15.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>45</v>
       </c>
       <c r="L62" t="str">
         <f>Sheet1!E62</f>
-        <v>201809_WINPG_Top15.xlsx</v>
+        <v>201810_WINPG_Top15.xlsx</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="D63" t="str">
         <f>Sheet1!C63</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2367,14 +2367,14 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" ref="G63:G66" si="3">$K63&amp;"\"&amp;L63</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CALGY_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_CALGY_Top15.xlsx</v>
       </c>
       <c r="K63" t="s">
         <v>45</v>
       </c>
       <c r="L63" t="str">
         <f>Sheet1!E63</f>
-        <v>201809_CALGY_Top15.xlsx</v>
+        <v>201810_CALGY_Top15.xlsx</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="D64" t="str">
         <f>Sheet1!C64</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2395,14 +2395,14 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC02_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VIC02_Top15.xlsx</v>
       </c>
       <c r="K64" t="s">
         <v>45</v>
       </c>
       <c r="L64" t="str">
         <f>Sheet1!E64</f>
-        <v>201809_VIC02_Top15.xlsx</v>
+        <v>201810_VIC02_Top15.xlsx</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D65" t="str">
         <f>Sheet1!C65</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2423,14 +2423,14 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_VIC03_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_VIC03_Top15.xlsx</v>
       </c>
       <c r="K65" t="s">
         <v>45</v>
       </c>
       <c r="L65" t="str">
         <f>Sheet1!E65</f>
-        <v>201809_VIC03_Top15.xlsx</v>
+        <v>201810_VIC03_Top15.xlsx</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="D66" t="str">
         <f>Sheet1!C66</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2451,14 +2451,14 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_Zahn_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201810_Zahn_Top15.xlsx</v>
       </c>
       <c r="K66" t="s">
         <v>45</v>
       </c>
       <c r="L66" t="str">
         <f>Sheet1!E66</f>
-        <v>201809_Zahn_Top15.xlsx</v>
+        <v>201810_Zahn_Top15.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -2538,8 +2538,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2956,11 +2956,11 @@
       </c>
       <c r="C2" t="str">
         <f>C3</f>
-        <v>FSC Top 15 Summary for September 2018</v>
+        <v>FSC Top 15 Summary for October 2018</v>
       </c>
       <c r="E2" t="str">
         <f>E3</f>
-        <v>201809_HALFX_Top15.xlsx</v>
+        <v>201810_HALFX_Top15.xlsx</v>
       </c>
       <c r="F2" t="str">
         <f>F3</f>
